--- a/data-migration/xlsx_1900-/1910_Sommer.xlsx
+++ b/data-migration/xlsx_1900-/1910_Sommer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F1BBAB-D07B-4AED-BF13-62F30680B5E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE844D7-A155-4055-8F3C-C3C2802F4748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3818,9 +3818,6 @@
     <t>EO</t>
   </si>
   <si>
-    <t>escher_a</t>
-  </si>
-  <si>
     <t>huber_m</t>
   </si>
   <si>
@@ -3885,6 +3882,9 @@
   </si>
   <si>
     <t>gysi_a</t>
+  </si>
+  <si>
+    <t>escher_a2</t>
   </si>
 </sst>
 </file>
@@ -4228,20 +4228,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N423"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
-      <selection activeCell="H168" sqref="H168"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="27.42578125" customWidth="1"/>
-    <col min="6" max="6" width="65.140625" customWidth="1"/>
-    <col min="7" max="7" width="28.42578125" customWidth="1"/>
-    <col min="8" max="8" width="24.5703125" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" customWidth="1"/>
+    <col min="5" max="5" width="27.44140625" customWidth="1"/>
+    <col min="6" max="6" width="65.109375" customWidth="1"/>
+    <col min="7" max="7" width="28.44140625" customWidth="1"/>
+    <col min="8" max="8" width="24.5546875" customWidth="1"/>
+    <col min="9" max="9" width="9.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1910</v>
       </c>
@@ -4267,7 +4267,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1910</v>
       </c>
@@ -4293,7 +4293,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1910</v>
       </c>
@@ -4319,7 +4319,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1910</v>
       </c>
@@ -4345,7 +4345,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1910</v>
       </c>
@@ -4371,7 +4371,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1910</v>
       </c>
@@ -4400,7 +4400,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1910</v>
       </c>
@@ -4429,7 +4429,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1910</v>
       </c>
@@ -4455,7 +4455,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1910</v>
       </c>
@@ -4481,10 +4481,10 @@
         <v>1257</v>
       </c>
       <c r="J9" t="s">
-        <v>1273</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1910</v>
       </c>
@@ -4510,7 +4510,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1910</v>
       </c>
@@ -4536,7 +4536,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1910</v>
       </c>
@@ -4562,7 +4562,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1910</v>
       </c>
@@ -4588,7 +4588,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1910</v>
       </c>
@@ -4614,7 +4614,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1910</v>
       </c>
@@ -4640,7 +4640,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1910</v>
       </c>
@@ -4666,7 +4666,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1910</v>
       </c>
@@ -4692,7 +4692,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1910</v>
       </c>
@@ -4718,10 +4718,10 @@
         <v>1257</v>
       </c>
       <c r="J18" t="s">
-        <v>1273</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1910</v>
       </c>
@@ -4747,7 +4747,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1910</v>
       </c>
@@ -4773,7 +4773,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1910</v>
       </c>
@@ -4802,7 +4802,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1910</v>
       </c>
@@ -4828,10 +4828,10 @@
         <v>1257</v>
       </c>
       <c r="J22" t="s">
-        <v>1273</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1910</v>
       </c>
@@ -4857,7 +4857,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1910</v>
       </c>
@@ -4883,7 +4883,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1910</v>
       </c>
@@ -4909,10 +4909,10 @@
         <v>1257</v>
       </c>
       <c r="J25" t="s">
-        <v>1273</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1910</v>
       </c>
@@ -4938,7 +4938,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1910</v>
       </c>
@@ -4967,7 +4967,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1910</v>
       </c>
@@ -4993,7 +4993,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1910</v>
       </c>
@@ -5019,7 +5019,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1910</v>
       </c>
@@ -5039,13 +5039,13 @@
         <v>869</v>
       </c>
       <c r="H30" t="s">
-        <v>1261</v>
+        <v>1283</v>
       </c>
       <c r="I30" t="s">
         <v>1258</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1910</v>
       </c>
@@ -5071,7 +5071,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1910</v>
       </c>
@@ -5097,7 +5097,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1910</v>
       </c>
@@ -5123,7 +5123,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1910</v>
       </c>
@@ -5149,7 +5149,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1910</v>
       </c>
@@ -5175,7 +5175,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1910</v>
       </c>
@@ -5189,7 +5189,7 @@
         <v>1252</v>
       </c>
       <c r="F36" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="G36" t="s">
         <v>875</v>
@@ -5201,7 +5201,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1910</v>
       </c>
@@ -5215,7 +5215,7 @@
         <v>1252</v>
       </c>
       <c r="F37" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="G37" t="s">
         <v>876</v>
@@ -5230,7 +5230,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1910</v>
       </c>
@@ -5256,7 +5256,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1910</v>
       </c>
@@ -5282,7 +5282,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1910</v>
       </c>
@@ -5311,7 +5311,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1910</v>
       </c>
@@ -5337,7 +5337,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1910</v>
       </c>
@@ -5363,7 +5363,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1910</v>
       </c>
@@ -5389,7 +5389,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1910</v>
       </c>
@@ -5409,13 +5409,13 @@
         <v>883</v>
       </c>
       <c r="H44" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="I44" t="s">
         <v>1257</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1910</v>
       </c>
@@ -5441,7 +5441,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1910</v>
       </c>
@@ -5467,7 +5467,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1910</v>
       </c>
@@ -5487,13 +5487,13 @@
         <v>886</v>
       </c>
       <c r="H47" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="I47" t="s">
         <v>1257</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1910</v>
       </c>
@@ -5519,7 +5519,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1910</v>
       </c>
@@ -5545,7 +5545,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1910</v>
       </c>
@@ -5571,7 +5571,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1910</v>
       </c>
@@ -5597,7 +5597,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1910</v>
       </c>
@@ -5623,7 +5623,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1910</v>
       </c>
@@ -5649,7 +5649,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1910</v>
       </c>
@@ -5672,10 +5672,10 @@
         <v>1132</v>
       </c>
       <c r="I54" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1910</v>
       </c>
@@ -5701,7 +5701,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1910</v>
       </c>
@@ -5724,10 +5724,10 @@
         <v>1134</v>
       </c>
       <c r="I56" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1910</v>
       </c>
@@ -5750,10 +5750,10 @@
         <v>1135</v>
       </c>
       <c r="I57" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1910</v>
       </c>
@@ -5779,7 +5779,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1910</v>
       </c>
@@ -5805,7 +5805,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1910</v>
       </c>
@@ -5831,7 +5831,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1910</v>
       </c>
@@ -5857,7 +5857,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1910</v>
       </c>
@@ -5886,7 +5886,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1910</v>
       </c>
@@ -5912,7 +5912,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1910</v>
       </c>
@@ -5932,13 +5932,13 @@
         <v>899</v>
       </c>
       <c r="H64" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="I64" t="s">
         <v>1257</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1910</v>
       </c>
@@ -5964,7 +5964,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1910</v>
       </c>
@@ -5990,7 +5990,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1910</v>
       </c>
@@ -6016,7 +6016,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1910</v>
       </c>
@@ -6039,10 +6039,10 @@
         <v>1134</v>
       </c>
       <c r="I68" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1910</v>
       </c>
@@ -6068,7 +6068,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1910</v>
       </c>
@@ -6088,13 +6088,13 @@
         <v>860</v>
       </c>
       <c r="H70" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="I70" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1910</v>
       </c>
@@ -6114,13 +6114,13 @@
         <v>903</v>
       </c>
       <c r="H71" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="I71" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1910</v>
       </c>
@@ -6146,7 +6146,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1910</v>
       </c>
@@ -6172,7 +6172,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1910</v>
       </c>
@@ -6210,7 +6210,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1910</v>
       </c>
@@ -6248,7 +6248,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1910</v>
       </c>
@@ -6274,7 +6274,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1910</v>
       </c>
@@ -6300,7 +6300,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>1910</v>
       </c>
@@ -6326,7 +6326,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>1910</v>
       </c>
@@ -6352,7 +6352,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>1910</v>
       </c>
@@ -6378,7 +6378,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>1910</v>
       </c>
@@ -6404,7 +6404,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>1910</v>
       </c>
@@ -6430,7 +6430,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>1910</v>
       </c>
@@ -6456,7 +6456,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>1910</v>
       </c>
@@ -6482,7 +6482,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>1910</v>
       </c>
@@ -6508,7 +6508,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>1910</v>
       </c>
@@ -6534,7 +6534,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>1910</v>
       </c>
@@ -6560,7 +6560,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1910</v>
       </c>
@@ -6586,7 +6586,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>1910</v>
       </c>
@@ -6612,7 +6612,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>1910</v>
       </c>
@@ -6638,7 +6638,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>1910</v>
       </c>
@@ -6664,7 +6664,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>1910</v>
       </c>
@@ -6690,7 +6690,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>1910</v>
       </c>
@@ -6716,7 +6716,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>1910</v>
       </c>
@@ -6742,7 +6742,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>1910</v>
       </c>
@@ -6768,7 +6768,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>1910</v>
       </c>
@@ -6794,7 +6794,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>1910</v>
       </c>
@@ -6820,7 +6820,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>1910</v>
       </c>
@@ -6846,7 +6846,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>1910</v>
       </c>
@@ -6872,7 +6872,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>1910</v>
       </c>
@@ -6898,7 +6898,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1910</v>
       </c>
@@ -6924,7 +6924,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>1910</v>
       </c>
@@ -6950,7 +6950,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>1910</v>
       </c>
@@ -6979,7 +6979,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>1910</v>
       </c>
@@ -7008,7 +7008,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>1910</v>
       </c>
@@ -7034,7 +7034,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>1910</v>
       </c>
@@ -7060,7 +7060,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>1910</v>
       </c>
@@ -7086,7 +7086,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>1910</v>
       </c>
@@ -7112,7 +7112,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>1910</v>
       </c>
@@ -7138,7 +7138,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>1910</v>
       </c>
@@ -7164,7 +7164,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>1910</v>
       </c>
@@ -7190,7 +7190,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>1910</v>
       </c>
@@ -7216,7 +7216,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>1910</v>
       </c>
@@ -7242,7 +7242,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>1910</v>
       </c>
@@ -7268,7 +7268,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>1910</v>
       </c>
@@ -7294,7 +7294,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>1910</v>
       </c>
@@ -7320,7 +7320,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>1910</v>
       </c>
@@ -7346,7 +7346,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>1910</v>
       </c>
@@ -7372,7 +7372,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>1910</v>
       </c>
@@ -7398,7 +7398,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>1910</v>
       </c>
@@ -7424,7 +7424,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>1910</v>
       </c>
@@ -7450,7 +7450,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>1910</v>
       </c>
@@ -7470,13 +7470,13 @@
         <v>939</v>
       </c>
       <c r="H122" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I122" t="s">
         <v>1258</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>1910</v>
       </c>
@@ -7502,7 +7502,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>1910</v>
       </c>
@@ -7528,7 +7528,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>1910</v>
       </c>
@@ -7554,7 +7554,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>1910</v>
       </c>
@@ -7580,7 +7580,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>1910</v>
       </c>
@@ -7606,7 +7606,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>1910</v>
       </c>
@@ -7632,7 +7632,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>1910</v>
       </c>
@@ -7658,7 +7658,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>1910</v>
       </c>
@@ -7684,7 +7684,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>1910</v>
       </c>
@@ -7710,7 +7710,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>1910</v>
       </c>
@@ -7736,7 +7736,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>1910</v>
       </c>
@@ -7762,7 +7762,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>1910</v>
       </c>
@@ -7788,7 +7788,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>1910</v>
       </c>
@@ -7814,7 +7814,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>1910</v>
       </c>
@@ -7840,7 +7840,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>1910</v>
       </c>
@@ -7866,7 +7866,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>1910</v>
       </c>
@@ -7892,7 +7892,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>1910</v>
       </c>
@@ -7918,7 +7918,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>1910</v>
       </c>
@@ -7944,7 +7944,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>1910</v>
       </c>
@@ -7970,7 +7970,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>1910</v>
       </c>
@@ -7996,7 +7996,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>1910</v>
       </c>
@@ -8022,7 +8022,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>1910</v>
       </c>
@@ -8048,7 +8048,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>1910</v>
       </c>
@@ -8068,13 +8068,13 @@
         <v>950</v>
       </c>
       <c r="H145" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="I145" t="s">
         <v>1258</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>1910</v>
       </c>
@@ -8094,13 +8094,13 @@
         <v>951</v>
       </c>
       <c r="H146" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="I146" t="s">
         <v>1258</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>1910</v>
       </c>
@@ -8126,7 +8126,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>1910</v>
       </c>
@@ -8152,7 +8152,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>1910</v>
       </c>
@@ -8178,7 +8178,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>1910</v>
       </c>
@@ -8204,7 +8204,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>1910</v>
       </c>
@@ -8230,7 +8230,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>1910</v>
       </c>
@@ -8256,7 +8256,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>1910</v>
       </c>
@@ -8282,7 +8282,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>1910</v>
       </c>
@@ -8308,7 +8308,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>1910</v>
       </c>
@@ -8334,7 +8334,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>1910</v>
       </c>
@@ -8360,7 +8360,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>1910</v>
       </c>
@@ -8386,7 +8386,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>1910</v>
       </c>
@@ -8412,7 +8412,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>1910</v>
       </c>
@@ -8438,7 +8438,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>1910</v>
       </c>
@@ -8458,13 +8458,13 @@
         <v>850</v>
       </c>
       <c r="H160" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="I160" t="s">
         <v>1258</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>1910</v>
       </c>
@@ -8484,13 +8484,13 @@
         <v>856</v>
       </c>
       <c r="H161" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="I161" t="s">
         <v>1258</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>1910</v>
       </c>
@@ -8516,7 +8516,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>1910</v>
       </c>
@@ -8542,7 +8542,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>1910</v>
       </c>
@@ -8568,7 +8568,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>1910</v>
       </c>
@@ -8591,10 +8591,10 @@
         <v>1163</v>
       </c>
       <c r="I165" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>1910</v>
       </c>
@@ -8617,10 +8617,10 @@
         <v>1163</v>
       </c>
       <c r="I166" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>1910</v>
       </c>
@@ -8643,10 +8643,10 @@
         <v>1164</v>
       </c>
       <c r="I167" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>1910</v>
       </c>
@@ -8669,10 +8669,10 @@
         <v>1164</v>
       </c>
       <c r="I168" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>1910</v>
       </c>
@@ -8695,10 +8695,10 @@
         <v>1164</v>
       </c>
       <c r="I169" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>1910</v>
       </c>
@@ -8721,10 +8721,10 @@
         <v>1164</v>
       </c>
       <c r="I170" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>1910</v>
       </c>
@@ -8744,13 +8744,13 @@
         <v>966</v>
       </c>
       <c r="H171" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="I171" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>1910</v>
       </c>
@@ -8770,13 +8770,13 @@
         <v>967</v>
       </c>
       <c r="H172" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="I172" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>1910</v>
       </c>
@@ -8802,7 +8802,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>1910</v>
       </c>
@@ -8828,7 +8828,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>1910</v>
       </c>
@@ -8854,7 +8854,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>1910</v>
       </c>
@@ -8880,7 +8880,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>1910</v>
       </c>
@@ -8906,7 +8906,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>1910</v>
       </c>
@@ -8932,7 +8932,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>1910</v>
       </c>
@@ -8958,7 +8958,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>1910</v>
       </c>
@@ -8984,7 +8984,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>1910</v>
       </c>
@@ -9010,7 +9010,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>1910</v>
       </c>
@@ -9036,7 +9036,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>1910</v>
       </c>
@@ -9062,7 +9062,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>1910</v>
       </c>
@@ -9091,7 +9091,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>1910</v>
       </c>
@@ -9120,7 +9120,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>1910</v>
       </c>
@@ -9149,7 +9149,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>1910</v>
       </c>
@@ -9178,7 +9178,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>1910</v>
       </c>
@@ -9207,7 +9207,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>1910</v>
       </c>
@@ -9233,7 +9233,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>1910</v>
       </c>
@@ -9259,7 +9259,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>1910</v>
       </c>
@@ -9285,7 +9285,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>1910</v>
       </c>
@@ -9311,7 +9311,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>1910</v>
       </c>
@@ -9337,7 +9337,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>1910</v>
       </c>
@@ -9363,7 +9363,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>1910</v>
       </c>
@@ -9389,7 +9389,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>1910</v>
       </c>
@@ -9415,7 +9415,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>1910</v>
       </c>
@@ -9441,7 +9441,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>1910</v>
       </c>
@@ -9467,7 +9467,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>1910</v>
       </c>
@@ -9493,7 +9493,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>1910</v>
       </c>
@@ -9516,10 +9516,10 @@
         <v>1170</v>
       </c>
       <c r="I200" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>1910</v>
       </c>
@@ -9545,7 +9545,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>1910</v>
       </c>
@@ -9571,7 +9571,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>1910</v>
       </c>
@@ -9597,7 +9597,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>1910</v>
       </c>
@@ -9623,7 +9623,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>1910</v>
       </c>
@@ -9649,7 +9649,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>1910</v>
       </c>
@@ -9675,7 +9675,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>1910</v>
       </c>
@@ -9701,7 +9701,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>1910</v>
       </c>
@@ -9727,7 +9727,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>1910</v>
       </c>
@@ -9753,7 +9753,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>1910</v>
       </c>
@@ -9779,7 +9779,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>1910</v>
       </c>
@@ -9805,7 +9805,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>1910</v>
       </c>
@@ -9831,7 +9831,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>1910</v>
       </c>
@@ -9857,7 +9857,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>1910</v>
       </c>
@@ -9883,7 +9883,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>1910</v>
       </c>
@@ -9909,7 +9909,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>1910</v>
       </c>
@@ -9935,7 +9935,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>1910</v>
       </c>
@@ -9961,7 +9961,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>1910</v>
       </c>
@@ -9987,7 +9987,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>1910</v>
       </c>
@@ -10013,7 +10013,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>1910</v>
       </c>
@@ -10039,7 +10039,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>1910</v>
       </c>
@@ -10065,7 +10065,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>1910</v>
       </c>
@@ -10091,7 +10091,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>1910</v>
       </c>
@@ -10117,7 +10117,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>1910</v>
       </c>
@@ -10143,7 +10143,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>1910</v>
       </c>
@@ -10169,7 +10169,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>1910</v>
       </c>
@@ -10195,7 +10195,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>1910</v>
       </c>
@@ -10218,10 +10218,10 @@
         <v>1179</v>
       </c>
       <c r="I227" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>1910</v>
       </c>
@@ -10244,10 +10244,10 @@
         <v>1179</v>
       </c>
       <c r="I228" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>1910</v>
       </c>
@@ -10270,10 +10270,10 @@
         <v>1179</v>
       </c>
       <c r="I229" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>1910</v>
       </c>
@@ -10296,10 +10296,10 @@
         <v>1179</v>
       </c>
       <c r="I230" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>1910</v>
       </c>
@@ -10325,7 +10325,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>1910</v>
       </c>
@@ -10351,7 +10351,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>1910</v>
       </c>
@@ -10377,7 +10377,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>1910</v>
       </c>
@@ -10403,7 +10403,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>1910</v>
       </c>
@@ -10429,7 +10429,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>1910</v>
       </c>
@@ -10455,7 +10455,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>1910</v>
       </c>
@@ -10481,7 +10481,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>1910</v>
       </c>
@@ -10507,7 +10507,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>1910</v>
       </c>
@@ -10533,7 +10533,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>1910</v>
       </c>
@@ -10559,7 +10559,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>1910</v>
       </c>
@@ -10585,7 +10585,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>1910</v>
       </c>
@@ -10611,7 +10611,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>1910</v>
       </c>
@@ -10637,7 +10637,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>1910</v>
       </c>
@@ -10663,7 +10663,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>1910</v>
       </c>
@@ -10689,7 +10689,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>1910</v>
       </c>
@@ -10715,7 +10715,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>1910</v>
       </c>
@@ -10735,13 +10735,13 @@
         <v>860</v>
       </c>
       <c r="H247" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="I247" t="s">
         <v>1258</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>1910</v>
       </c>
@@ -10761,13 +10761,13 @@
         <v>1007</v>
       </c>
       <c r="H248" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="I248" t="s">
         <v>1258</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>1910</v>
       </c>
@@ -10787,13 +10787,13 @@
         <v>1009</v>
       </c>
       <c r="H249" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="I249" t="s">
         <v>1258</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>1910</v>
       </c>
@@ -10813,13 +10813,13 @@
         <v>1022</v>
       </c>
       <c r="H250" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="I250" t="s">
         <v>1258</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>1910</v>
       </c>
@@ -10845,7 +10845,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>1910</v>
       </c>
@@ -10871,7 +10871,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>1910</v>
       </c>
@@ -10897,7 +10897,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>1910</v>
       </c>
@@ -10923,7 +10923,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>1910</v>
       </c>
@@ -10949,7 +10949,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>1910</v>
       </c>
@@ -10975,7 +10975,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>1910</v>
       </c>
@@ -10995,13 +10995,13 @@
         <v>850</v>
       </c>
       <c r="H257" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="I257" t="s">
         <v>1258</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>1910</v>
       </c>
@@ -11021,13 +11021,13 @@
         <v>1028</v>
       </c>
       <c r="H258" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="I258" t="s">
         <v>1257</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>1910</v>
       </c>
@@ -11053,7 +11053,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>1910</v>
       </c>
@@ -11073,13 +11073,13 @@
         <v>1030</v>
       </c>
       <c r="H260" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="I260" t="s">
         <v>1257</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>1910</v>
       </c>
@@ -11105,7 +11105,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>1910</v>
       </c>
@@ -11131,7 +11131,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>1910</v>
       </c>
@@ -11157,7 +11157,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>1910</v>
       </c>
@@ -11183,7 +11183,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>1910</v>
       </c>
@@ -11209,7 +11209,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>1910</v>
       </c>
@@ -11229,13 +11229,13 @@
         <v>1033</v>
       </c>
       <c r="H266" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="I266" t="s">
         <v>1257</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>1910</v>
       </c>
@@ -11255,13 +11255,13 @@
         <v>1034</v>
       </c>
       <c r="H267" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="I267" t="s">
         <v>1257</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>1910</v>
       </c>
@@ -11281,13 +11281,13 @@
         <v>1035</v>
       </c>
       <c r="H268" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="I268" t="s">
         <v>1257</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>1910</v>
       </c>
@@ -11313,7 +11313,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>1910</v>
       </c>
@@ -11333,13 +11333,13 @@
         <v>886</v>
       </c>
       <c r="H270" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="I270" t="s">
         <v>1258</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>1910</v>
       </c>
@@ -11359,13 +11359,13 @@
         <v>1037</v>
       </c>
       <c r="H271" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="I271" t="s">
         <v>1258</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>1910</v>
       </c>
@@ -11391,7 +11391,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>1910</v>
       </c>
@@ -11420,7 +11420,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>1910</v>
       </c>
@@ -11440,13 +11440,13 @@
         <v>1039</v>
       </c>
       <c r="H274" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="I274" t="s">
         <v>1258</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>1910</v>
       </c>
@@ -11472,7 +11472,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>1910</v>
       </c>
@@ -11498,7 +11498,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>1910</v>
       </c>
@@ -11527,7 +11527,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>1910</v>
       </c>
@@ -11556,7 +11556,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>1910</v>
       </c>
@@ -11585,7 +11585,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>1910</v>
       </c>
@@ -11611,7 +11611,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>1910</v>
       </c>
@@ -11637,7 +11637,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>1910</v>
       </c>
@@ -11663,7 +11663,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>1910</v>
       </c>
@@ -11689,7 +11689,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>1910</v>
       </c>
@@ -11718,7 +11718,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>1910</v>
       </c>
@@ -11744,7 +11744,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>1910</v>
       </c>
@@ -11770,7 +11770,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>1910</v>
       </c>
@@ -11799,7 +11799,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>1910</v>
       </c>
@@ -11825,7 +11825,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>1910</v>
       </c>
@@ -11851,7 +11851,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>1910</v>
       </c>
@@ -11877,7 +11877,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>1910</v>
       </c>
@@ -11897,13 +11897,13 @@
         <v>1047</v>
       </c>
       <c r="H291" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="I291" t="s">
         <v>1257</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>1910</v>
       </c>
@@ -11929,7 +11929,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>1910</v>
       </c>
@@ -11949,13 +11949,13 @@
         <v>1048</v>
       </c>
       <c r="H293" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="I293" t="s">
         <v>1257</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>1910</v>
       </c>
@@ -11981,7 +11981,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>1910</v>
       </c>
@@ -12007,7 +12007,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>1910</v>
       </c>
@@ -12027,13 +12027,13 @@
         <v>1049</v>
       </c>
       <c r="H296" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="I296" t="s">
         <v>1257</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>1910</v>
       </c>
@@ -12059,7 +12059,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>1910</v>
       </c>
@@ -12085,7 +12085,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>1910</v>
       </c>
@@ -12111,7 +12111,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>1910</v>
       </c>
@@ -12137,7 +12137,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>1910</v>
       </c>
@@ -12163,7 +12163,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>1910</v>
       </c>
@@ -12189,7 +12189,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>1910</v>
       </c>
@@ -12215,7 +12215,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>1910</v>
       </c>
@@ -12241,7 +12241,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>1910</v>
       </c>
@@ -12270,7 +12270,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>1910</v>
       </c>
@@ -12296,7 +12296,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>1910</v>
       </c>
@@ -12322,7 +12322,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>1910</v>
       </c>
@@ -12342,13 +12342,13 @@
         <v>1056</v>
       </c>
       <c r="H308" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="I308" t="s">
         <v>1257</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>1910</v>
       </c>
@@ -12368,13 +12368,13 @@
         <v>1057</v>
       </c>
       <c r="H309" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="I309" t="s">
         <v>1257</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>1910</v>
       </c>
@@ -12400,7 +12400,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>1910</v>
       </c>
@@ -12426,7 +12426,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>1910</v>
       </c>
@@ -12452,7 +12452,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>1910</v>
       </c>
@@ -12481,7 +12481,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>1910</v>
       </c>
@@ -12507,7 +12507,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>1910</v>
       </c>
@@ -12533,7 +12533,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>1910</v>
       </c>
@@ -12559,7 +12559,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>1910</v>
       </c>
@@ -12585,7 +12585,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>1910</v>
       </c>
@@ -12611,7 +12611,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>1910</v>
       </c>
@@ -12640,7 +12640,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>1910</v>
       </c>
@@ -12666,7 +12666,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>1910</v>
       </c>
@@ -12692,7 +12692,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>1910</v>
       </c>
@@ -12718,7 +12718,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>1910</v>
       </c>
@@ -12744,7 +12744,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>1910</v>
       </c>
@@ -12767,7 +12767,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>1910</v>
       </c>
@@ -12790,7 +12790,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>1910</v>
       </c>
@@ -12813,7 +12813,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>1910</v>
       </c>
@@ -12836,7 +12836,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>1910</v>
       </c>
@@ -12862,7 +12862,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>1910</v>
       </c>
@@ -12888,7 +12888,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>1910</v>
       </c>
@@ -12914,7 +12914,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>1910</v>
       </c>
@@ -12940,7 +12940,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>1910</v>
       </c>
@@ -12966,7 +12966,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>1910</v>
       </c>
@@ -12992,7 +12992,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>1910</v>
       </c>
@@ -13018,7 +13018,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>1910</v>
       </c>
@@ -13044,7 +13044,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>1910</v>
       </c>
@@ -13070,7 +13070,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>1910</v>
       </c>
@@ -13099,7 +13099,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>1910</v>
       </c>
@@ -13128,7 +13128,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>1910</v>
       </c>
@@ -13157,7 +13157,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>1910</v>
       </c>
@@ -13183,7 +13183,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>1910</v>
       </c>
@@ -13209,7 +13209,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>1910</v>
       </c>
@@ -13235,7 +13235,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>1910</v>
       </c>
@@ -13261,7 +13261,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>1910</v>
       </c>
@@ -13293,7 +13293,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>1910</v>
       </c>
@@ -13319,7 +13319,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>1910</v>
       </c>
@@ -13345,7 +13345,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>1910</v>
       </c>
@@ -13371,7 +13371,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>1910</v>
       </c>
@@ -13403,7 +13403,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>1910</v>
       </c>
@@ -13429,7 +13429,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>1910</v>
       </c>
@@ -13455,7 +13455,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>1910</v>
       </c>
@@ -13481,7 +13481,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>1910</v>
       </c>
@@ -13507,7 +13507,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>1910</v>
       </c>
@@ -13533,7 +13533,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>1910</v>
       </c>
@@ -13559,7 +13559,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>1910</v>
       </c>
@@ -13585,7 +13585,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>1910</v>
       </c>
@@ -13611,7 +13611,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>1910</v>
       </c>
@@ -13637,7 +13637,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>1910</v>
       </c>
@@ -13663,7 +13663,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>1910</v>
       </c>
@@ -13689,7 +13689,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>1910</v>
       </c>
@@ -13715,7 +13715,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>1910</v>
       </c>
@@ -13741,7 +13741,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>1910</v>
       </c>
@@ -13767,7 +13767,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>1910</v>
       </c>
@@ -13793,7 +13793,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>1910</v>
       </c>
@@ -13819,7 +13819,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>1910</v>
       </c>
@@ -13845,7 +13845,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>1910</v>
       </c>
@@ -13871,7 +13871,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>1910</v>
       </c>
@@ -13897,7 +13897,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>1910</v>
       </c>
@@ -13923,7 +13923,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>1910</v>
       </c>
@@ -13949,7 +13949,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>1910</v>
       </c>
@@ -13975,7 +13975,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>1910</v>
       </c>
@@ -14001,7 +14001,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>1910</v>
       </c>
@@ -14027,7 +14027,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>1910</v>
       </c>
@@ -14056,7 +14056,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>1910</v>
       </c>
@@ -14076,13 +14076,13 @@
         <v>1092</v>
       </c>
       <c r="H374" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="I374" t="s">
         <v>1257</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>1910</v>
       </c>
@@ -14102,13 +14102,13 @@
         <v>1093</v>
       </c>
       <c r="H375" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="I375" t="s">
         <v>1257</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>1910</v>
       </c>
@@ -14128,13 +14128,13 @@
         <v>1094</v>
       </c>
       <c r="H376" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="I376" t="s">
         <v>1257</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>1910</v>
       </c>
@@ -14154,13 +14154,13 @@
         <v>856</v>
       </c>
       <c r="H377" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="I377" t="s">
         <v>1257</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>1910</v>
       </c>
@@ -14180,13 +14180,13 @@
         <v>856</v>
       </c>
       <c r="H378" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="I378" t="s">
         <v>1258</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>1910</v>
       </c>
@@ -14212,7 +14212,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>1910</v>
       </c>
@@ -14238,7 +14238,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>1910</v>
       </c>
@@ -14264,7 +14264,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>1910</v>
       </c>
@@ -14290,7 +14290,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>1910</v>
       </c>
@@ -14316,7 +14316,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>1910</v>
       </c>
@@ -14342,7 +14342,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>1910</v>
       </c>
@@ -14368,7 +14368,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>1910</v>
       </c>
@@ -14394,7 +14394,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>1910</v>
       </c>
@@ -14420,7 +14420,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>1910</v>
       </c>
@@ -14446,7 +14446,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>1910</v>
       </c>
@@ -14466,7 +14466,7 @@
         <v>1097</v>
       </c>
       <c r="H389" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="I389" t="s">
         <v>1257</v>
@@ -14475,7 +14475,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>1910</v>
       </c>
@@ -14495,7 +14495,7 @@
         <v>1098</v>
       </c>
       <c r="H390" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="I390" t="s">
         <v>1257</v>
@@ -14504,7 +14504,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>1910</v>
       </c>
@@ -14524,7 +14524,7 @@
         <v>1099</v>
       </c>
       <c r="H391" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="I391" t="s">
         <v>1257</v>
@@ -14533,7 +14533,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>1910</v>
       </c>
@@ -14553,7 +14553,7 @@
         <v>856</v>
       </c>
       <c r="H392" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="I392" t="s">
         <v>1257</v>
@@ -14562,7 +14562,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>1910</v>
       </c>
@@ -14582,7 +14582,7 @@
         <v>1100</v>
       </c>
       <c r="H393" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="I393" t="s">
         <v>1257</v>
@@ -14591,7 +14591,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>1910</v>
       </c>
@@ -14611,7 +14611,7 @@
         <v>1101</v>
       </c>
       <c r="H394" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="I394" t="s">
         <v>1257</v>
@@ -14620,7 +14620,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>1910</v>
       </c>
@@ -14640,7 +14640,7 @@
         <v>1102</v>
       </c>
       <c r="H395" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="I395" t="s">
         <v>1257</v>
@@ -14649,7 +14649,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>1910</v>
       </c>
@@ -14675,7 +14675,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>1910</v>
       </c>
@@ -14701,7 +14701,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>1910</v>
       </c>
@@ -14727,7 +14727,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>1910</v>
       </c>
@@ -14753,7 +14753,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>1910</v>
       </c>
@@ -14779,7 +14779,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>1910</v>
       </c>
@@ -14805,7 +14805,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>1910</v>
       </c>
@@ -14831,7 +14831,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>1910</v>
       </c>
@@ -14857,7 +14857,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>1910</v>
       </c>
@@ -14883,7 +14883,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>1910</v>
       </c>
@@ -14909,7 +14909,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>1910</v>
       </c>
@@ -14935,7 +14935,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>1910</v>
       </c>
@@ -14961,7 +14961,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>1910</v>
       </c>
@@ -14987,7 +14987,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>1910</v>
       </c>
@@ -15013,7 +15013,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>1910</v>
       </c>
@@ -15039,7 +15039,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>1910</v>
       </c>
@@ -15065,7 +15065,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>1910</v>
       </c>
@@ -15091,7 +15091,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>1910</v>
       </c>
@@ -15117,7 +15117,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>1910</v>
       </c>
@@ -15143,7 +15143,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>1910</v>
       </c>
@@ -15169,7 +15169,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>1910</v>
       </c>
@@ -15195,7 +15195,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>1910</v>
       </c>
@@ -15221,7 +15221,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>1910</v>
       </c>
@@ -15247,7 +15247,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>1910</v>
       </c>
@@ -15273,7 +15273,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>1910</v>
       </c>
@@ -15299,7 +15299,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>1910</v>
       </c>
@@ -15325,7 +15325,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>1910</v>
       </c>
@@ -15351,7 +15351,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>1910</v>
       </c>

--- a/data-migration/xlsx_1900-/1910_Sommer.xlsx
+++ b/data-migration/xlsx_1900-/1910_Sommer.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\TEMP_REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE844D7-A155-4055-8F3C-C3C2802F4748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E24D623-8D5D-4F67-922C-990A191EC8B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3007" uniqueCount="1284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3009" uniqueCount="1286">
   <si>
     <t>Sommer</t>
   </si>
@@ -3488,9 +3488,6 @@
     <t>heuss_e</t>
   </si>
   <si>
-    <t>kroenlein_u</t>
-  </si>
-  <si>
     <t>schlatter_k</t>
   </si>
   <si>
@@ -3704,9 +3701,6 @@
     <t>hescheler_k</t>
   </si>
   <si>
-    <t>standfuss_m</t>
-  </si>
-  <si>
     <t>bretscher_k</t>
   </si>
   <si>
@@ -3719,9 +3713,6 @@
     <t>martin_r</t>
   </si>
   <si>
-    <t>vonschulthessrechberg_g</t>
-  </si>
-  <si>
     <t>koehler_l1</t>
   </si>
   <si>
@@ -3731,33 +3722,18 @@
     <t>hitzig_hf</t>
   </si>
   <si>
-    <t>vonmonakow_c</t>
-  </si>
-  <si>
-    <t>wyss_o</t>
-  </si>
-  <si>
     <t>schulthess_w</t>
   </si>
   <si>
     <t>schmidt_mb</t>
   </si>
   <si>
-    <t>silberschmidt _w</t>
-  </si>
-  <si>
     <t>cloetta_m</t>
   </si>
   <si>
     <t>veraguth_o</t>
   </si>
   <si>
-    <t>vonwyss_h1</t>
-  </si>
-  <si>
-    <t>meyerrueegg_h</t>
-  </si>
-  <si>
     <t>meyerwirz_e</t>
   </si>
   <si>
@@ -3885,6 +3861,36 @@
   </si>
   <si>
     <t>escher_a2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meyer-rueegg_h </t>
+  </si>
+  <si>
+    <t>naegeli</t>
+  </si>
+  <si>
+    <t>Schellenberg</t>
+  </si>
+  <si>
+    <t>vonwyss_h2</t>
+  </si>
+  <si>
+    <t>kroenlein_ru</t>
+  </si>
+  <si>
+    <t>monakow_c</t>
+  </si>
+  <si>
+    <t>schulthess_rg</t>
+  </si>
+  <si>
+    <t>wyss-kienast_o</t>
+  </si>
+  <si>
+    <t>standfuss_mr</t>
+  </si>
+  <si>
+    <t>silberschmidt_w</t>
   </si>
 </sst>
 </file>
@@ -3924,7 +3930,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -4228,11 +4234,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N423"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="E77" workbookViewId="0">
+      <selection activeCell="H96" sqref="H96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="27.44140625" customWidth="1"/>
     <col min="6" max="6" width="65.109375" customWidth="1"/>
@@ -4252,7 +4258,7 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -4261,10 +4267,10 @@
         <v>3</v>
       </c>
       <c r="H1" t="s">
-        <v>1228</v>
+        <v>1282</v>
       </c>
       <c r="I1" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -4278,7 +4284,7 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
       <c r="F2" t="s">
         <v>427</v>
@@ -4290,7 +4296,7 @@
         <v>1117</v>
       </c>
       <c r="I2" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -4304,7 +4310,7 @@
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
       <c r="F3" t="s">
         <v>428</v>
@@ -4316,7 +4322,7 @@
         <v>1117</v>
       </c>
       <c r="I3" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -4330,7 +4336,7 @@
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
       <c r="F4" t="s">
         <v>429</v>
@@ -4339,10 +4345,10 @@
         <v>846</v>
       </c>
       <c r="H4" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="I4" t="s">
-        <v>1260</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -4356,7 +4362,7 @@
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
       <c r="F5" t="s">
         <v>430</v>
@@ -4365,10 +4371,10 @@
         <v>847</v>
       </c>
       <c r="H5" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="I5" t="s">
-        <v>1260</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -4382,7 +4388,7 @@
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
       <c r="F6" t="s">
         <v>431</v>
@@ -4394,10 +4400,10 @@
         <v>1119</v>
       </c>
       <c r="I6" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
       <c r="J6" t="s">
-        <v>1259</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -4411,7 +4417,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
       <c r="F7" t="s">
         <v>432</v>
@@ -4423,10 +4429,10 @@
         <v>1119</v>
       </c>
       <c r="I7" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
       <c r="J7" t="s">
-        <v>1259</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -4440,7 +4446,7 @@
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
       <c r="F8" t="s">
         <v>433</v>
@@ -4452,7 +4458,7 @@
         <v>1120</v>
       </c>
       <c r="I8" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -4466,7 +4472,7 @@
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
       <c r="F9" t="s">
         <v>434</v>
@@ -4475,13 +4481,13 @@
         <v>851</v>
       </c>
       <c r="H9" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="I9" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
       <c r="J9" t="s">
-        <v>1272</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -4495,7 +4501,7 @@
         <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
       <c r="F10" t="s">
         <v>435</v>
@@ -4507,7 +4513,7 @@
         <v>1118</v>
       </c>
       <c r="I10" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -4521,7 +4527,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
       <c r="F11" t="s">
         <v>436</v>
@@ -4533,7 +4539,7 @@
         <v>1118</v>
       </c>
       <c r="I11" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -4547,7 +4553,7 @@
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
       <c r="F12" t="s">
         <v>437</v>
@@ -4559,7 +4565,7 @@
         <v>1118</v>
       </c>
       <c r="I12" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -4573,7 +4579,7 @@
         <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
       <c r="F13" t="s">
         <v>438</v>
@@ -4582,10 +4588,10 @@
         <v>855</v>
       </c>
       <c r="H13" t="s">
-        <v>1228</v>
+        <v>1282</v>
       </c>
       <c r="I13" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -4599,7 +4605,7 @@
         <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
       <c r="F14" t="s">
         <v>439</v>
@@ -4608,10 +4614,10 @@
         <v>856</v>
       </c>
       <c r="H14" t="s">
-        <v>1228</v>
+        <v>1282</v>
       </c>
       <c r="I14" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -4625,7 +4631,7 @@
         <v>18</v>
       </c>
       <c r="E15" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
       <c r="F15" t="s">
         <v>440</v>
@@ -4637,7 +4643,7 @@
         <v>1121</v>
       </c>
       <c r="I15" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -4651,7 +4657,7 @@
         <v>19</v>
       </c>
       <c r="E16" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
       <c r="F16" t="s">
         <v>441</v>
@@ -4663,7 +4669,7 @@
         <v>1121</v>
       </c>
       <c r="I16" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -4677,7 +4683,7 @@
         <v>20</v>
       </c>
       <c r="E17" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
       <c r="F17" t="s">
         <v>442</v>
@@ -4689,7 +4695,7 @@
         <v>1121</v>
       </c>
       <c r="I17" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -4703,7 +4709,7 @@
         <v>21</v>
       </c>
       <c r="E18" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
       <c r="F18" t="s">
         <v>443</v>
@@ -4712,13 +4718,13 @@
         <v>847</v>
       </c>
       <c r="H18" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="I18" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
       <c r="J18" t="s">
-        <v>1272</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -4732,7 +4738,7 @@
         <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
       <c r="F19" t="s">
         <v>444</v>
@@ -4744,7 +4750,7 @@
         <v>1121</v>
       </c>
       <c r="I19" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -4758,7 +4764,7 @@
         <v>23</v>
       </c>
       <c r="E20" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
       <c r="F20" t="s">
         <v>445</v>
@@ -4770,7 +4776,7 @@
         <v>1117</v>
       </c>
       <c r="I20" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -4784,7 +4790,7 @@
         <v>24</v>
       </c>
       <c r="E21" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
       <c r="F21" t="s">
         <v>446</v>
@@ -4796,10 +4802,10 @@
         <v>1119</v>
       </c>
       <c r="I21" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
       <c r="J21" t="s">
-        <v>1259</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -4813,7 +4819,7 @@
         <v>25</v>
       </c>
       <c r="E22" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
       <c r="F22" t="s">
         <v>447</v>
@@ -4822,13 +4828,13 @@
         <v>862</v>
       </c>
       <c r="H22" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="I22" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
       <c r="J22" t="s">
-        <v>1272</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -4842,7 +4848,7 @@
         <v>26</v>
       </c>
       <c r="E23" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
       <c r="F23" t="s">
         <v>448</v>
@@ -4854,7 +4860,7 @@
         <v>1118</v>
       </c>
       <c r="I23" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -4868,7 +4874,7 @@
         <v>27</v>
       </c>
       <c r="E24" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
       <c r="F24" t="s">
         <v>449</v>
@@ -4877,10 +4883,10 @@
         <v>864</v>
       </c>
       <c r="H24" t="s">
-        <v>1228</v>
+        <v>1282</v>
       </c>
       <c r="I24" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -4894,7 +4900,7 @@
         <v>28</v>
       </c>
       <c r="E25" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
       <c r="F25" t="s">
         <v>450</v>
@@ -4903,13 +4909,13 @@
         <v>865</v>
       </c>
       <c r="H25" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="I25" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
       <c r="J25" t="s">
-        <v>1272</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -4923,7 +4929,7 @@
         <v>29</v>
       </c>
       <c r="E26" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
       <c r="F26" t="s">
         <v>451</v>
@@ -4935,7 +4941,7 @@
         <v>1121</v>
       </c>
       <c r="I26" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -4949,7 +4955,7 @@
         <v>30</v>
       </c>
       <c r="E27" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
       <c r="F27" t="s">
         <v>452</v>
@@ -4961,10 +4967,10 @@
         <v>1122</v>
       </c>
       <c r="I27" t="s">
-        <v>1260</v>
+        <v>1252</v>
       </c>
       <c r="J27" t="s">
-        <v>1259</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -4978,7 +4984,7 @@
         <v>31</v>
       </c>
       <c r="E28" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
       <c r="F28" t="s">
         <v>453</v>
@@ -4987,10 +4993,10 @@
         <v>867</v>
       </c>
       <c r="H28" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="I28" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -5004,7 +5010,7 @@
         <v>32</v>
       </c>
       <c r="E29" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
       <c r="F29" t="s">
         <v>454</v>
@@ -5013,10 +5019,10 @@
         <v>868</v>
       </c>
       <c r="H29" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="I29" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -5030,7 +5036,7 @@
         <v>33</v>
       </c>
       <c r="E30" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
       <c r="F30" t="s">
         <v>455</v>
@@ -5039,10 +5045,10 @@
         <v>869</v>
       </c>
       <c r="H30" t="s">
-        <v>1283</v>
+        <v>1275</v>
       </c>
       <c r="I30" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -5056,7 +5062,7 @@
         <v>34</v>
       </c>
       <c r="E31" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
       <c r="F31" t="s">
         <v>456</v>
@@ -5068,7 +5074,7 @@
         <v>1123</v>
       </c>
       <c r="I31" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -5082,7 +5088,7 @@
         <v>35</v>
       </c>
       <c r="E32" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
       <c r="F32" t="s">
         <v>457</v>
@@ -5091,10 +5097,10 @@
         <v>871</v>
       </c>
       <c r="H32" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="I32" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
@@ -5108,7 +5114,7 @@
         <v>36</v>
       </c>
       <c r="E33" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
       <c r="F33" t="s">
         <v>458</v>
@@ -5120,7 +5126,7 @@
         <v>1124</v>
       </c>
       <c r="I33" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
@@ -5134,7 +5140,7 @@
         <v>37</v>
       </c>
       <c r="E34" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
       <c r="F34" t="s">
         <v>459</v>
@@ -5146,7 +5152,7 @@
         <v>1123</v>
       </c>
       <c r="I34" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
@@ -5160,7 +5166,7 @@
         <v>38</v>
       </c>
       <c r="E35" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
       <c r="F35" t="s">
         <v>460</v>
@@ -5172,7 +5178,7 @@
         <v>1125</v>
       </c>
       <c r="I35" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
@@ -5186,10 +5192,10 @@
         <v>39</v>
       </c>
       <c r="E36" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
       <c r="F36" t="s">
-        <v>1267</v>
+        <v>1259</v>
       </c>
       <c r="G36" t="s">
         <v>875</v>
@@ -5198,7 +5204,7 @@
         <v>1126</v>
       </c>
       <c r="I36" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
@@ -5212,10 +5218,10 @@
         <v>40</v>
       </c>
       <c r="E37" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
       <c r="F37" t="s">
-        <v>1266</v>
+        <v>1258</v>
       </c>
       <c r="G37" t="s">
         <v>876</v>
@@ -5224,10 +5230,10 @@
         <v>1122</v>
       </c>
       <c r="I37" t="s">
-        <v>1260</v>
+        <v>1252</v>
       </c>
       <c r="J37" t="s">
-        <v>1259</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
@@ -5241,7 +5247,7 @@
         <v>41</v>
       </c>
       <c r="E38" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
       <c r="F38" t="s">
         <v>461</v>
@@ -5253,7 +5259,7 @@
         <v>1126</v>
       </c>
       <c r="I38" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
@@ -5267,7 +5273,7 @@
         <v>42</v>
       </c>
       <c r="E39" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
       <c r="F39" t="s">
         <v>462</v>
@@ -5279,7 +5285,7 @@
         <v>1126</v>
       </c>
       <c r="I39" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
@@ -5293,7 +5299,7 @@
         <v>43</v>
       </c>
       <c r="E40" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
       <c r="F40" t="s">
         <v>463</v>
@@ -5305,10 +5311,10 @@
         <v>1122</v>
       </c>
       <c r="I40" t="s">
-        <v>1260</v>
+        <v>1252</v>
       </c>
       <c r="J40" t="s">
-        <v>1259</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
@@ -5322,7 +5328,7 @@
         <v>44</v>
       </c>
       <c r="E41" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
       <c r="F41" t="s">
         <v>464</v>
@@ -5334,7 +5340,7 @@
         <v>1127</v>
       </c>
       <c r="I41" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
@@ -5348,7 +5354,7 @@
         <v>45</v>
       </c>
       <c r="E42" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
       <c r="F42" t="s">
         <v>465</v>
@@ -5360,7 +5366,7 @@
         <v>1127</v>
       </c>
       <c r="I42" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
@@ -5374,7 +5380,7 @@
         <v>46</v>
       </c>
       <c r="E43" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
       <c r="F43" t="s">
         <v>466</v>
@@ -5386,7 +5392,7 @@
         <v>1127</v>
       </c>
       <c r="I43" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
@@ -5400,7 +5406,7 @@
         <v>47</v>
       </c>
       <c r="E44" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
       <c r="F44" t="s">
         <v>467</v>
@@ -5409,10 +5415,10 @@
         <v>883</v>
       </c>
       <c r="H44" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="I44" t="s">
-        <v>1257</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
@@ -5426,7 +5432,7 @@
         <v>48</v>
       </c>
       <c r="E45" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
       <c r="F45" t="s">
         <v>468</v>
@@ -5438,7 +5444,7 @@
         <v>1128</v>
       </c>
       <c r="I45" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
@@ -5452,7 +5458,7 @@
         <v>49</v>
       </c>
       <c r="E46" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
       <c r="F46" t="s">
         <v>469</v>
@@ -5464,7 +5470,7 @@
         <v>1128</v>
       </c>
       <c r="I46" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
@@ -5478,7 +5484,7 @@
         <v>50</v>
       </c>
       <c r="E47" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
       <c r="F47" t="s">
         <v>470</v>
@@ -5487,10 +5493,10 @@
         <v>886</v>
       </c>
       <c r="H47" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="I47" t="s">
-        <v>1257</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
@@ -5504,7 +5510,7 @@
         <v>51</v>
       </c>
       <c r="E48" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
       <c r="F48" t="s">
         <v>471</v>
@@ -5516,7 +5522,7 @@
         <v>1129</v>
       </c>
       <c r="I48" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
@@ -5530,7 +5536,7 @@
         <v>52</v>
       </c>
       <c r="E49" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
       <c r="F49" t="s">
         <v>472</v>
@@ -5542,7 +5548,7 @@
         <v>1129</v>
       </c>
       <c r="I49" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
@@ -5556,7 +5562,7 @@
         <v>53</v>
       </c>
       <c r="E50" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
       <c r="F50" t="s">
         <v>473</v>
@@ -5568,7 +5574,7 @@
         <v>1130</v>
       </c>
       <c r="I50" t="s">
-        <v>1260</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
@@ -5582,7 +5588,7 @@
         <v>54</v>
       </c>
       <c r="E51" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
       <c r="F51" t="s">
         <v>474</v>
@@ -5594,7 +5600,7 @@
         <v>1130</v>
       </c>
       <c r="I51" t="s">
-        <v>1260</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
@@ -5608,7 +5614,7 @@
         <v>55</v>
       </c>
       <c r="E52" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
       <c r="F52" t="s">
         <v>475</v>
@@ -5617,10 +5623,10 @@
         <v>863</v>
       </c>
       <c r="H52" t="s">
-        <v>1250</v>
+        <v>1242</v>
       </c>
       <c r="I52" t="s">
-        <v>1260</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
@@ -5634,7 +5640,7 @@
         <v>56</v>
       </c>
       <c r="E53" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
       <c r="F53" t="s">
         <v>476</v>
@@ -5643,10 +5649,10 @@
         <v>891</v>
       </c>
       <c r="H53" t="s">
-        <v>1250</v>
+        <v>1242</v>
       </c>
       <c r="I53" t="s">
-        <v>1260</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
@@ -5660,7 +5666,7 @@
         <v>57</v>
       </c>
       <c r="E54" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
       <c r="F54" t="s">
         <v>477</v>
@@ -5672,7 +5678,7 @@
         <v>1132</v>
       </c>
       <c r="I54" t="s">
-        <v>1262</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
@@ -5686,7 +5692,7 @@
         <v>58</v>
       </c>
       <c r="E55" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
       <c r="F55" t="s">
         <v>478</v>
@@ -5698,7 +5704,7 @@
         <v>1133</v>
       </c>
       <c r="I55" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
@@ -5712,7 +5718,7 @@
         <v>59</v>
       </c>
       <c r="E56" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
       <c r="F56" t="s">
         <v>479</v>
@@ -5724,7 +5730,7 @@
         <v>1134</v>
       </c>
       <c r="I56" t="s">
-        <v>1262</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
@@ -5738,7 +5744,7 @@
         <v>60</v>
       </c>
       <c r="E57" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
       <c r="F57" t="s">
         <v>480</v>
@@ -5750,7 +5756,7 @@
         <v>1135</v>
       </c>
       <c r="I57" t="s">
-        <v>1262</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
@@ -5764,7 +5770,7 @@
         <v>61</v>
       </c>
       <c r="E58" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
       <c r="F58" t="s">
         <v>481</v>
@@ -5773,10 +5779,10 @@
         <v>895</v>
       </c>
       <c r="H58" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="I58" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
@@ -5790,7 +5796,7 @@
         <v>62</v>
       </c>
       <c r="E59" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
       <c r="F59" t="s">
         <v>482</v>
@@ -5802,7 +5808,7 @@
         <v>1124</v>
       </c>
       <c r="I59" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
@@ -5816,7 +5822,7 @@
         <v>63</v>
       </c>
       <c r="E60" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
       <c r="F60" t="s">
         <v>483</v>
@@ -5828,7 +5834,7 @@
         <v>1123</v>
       </c>
       <c r="I60" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
@@ -5842,7 +5848,7 @@
         <v>64</v>
       </c>
       <c r="E61" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
       <c r="F61" t="s">
         <v>484</v>
@@ -5854,7 +5860,7 @@
         <v>1126</v>
       </c>
       <c r="I61" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
@@ -5868,7 +5874,7 @@
         <v>65</v>
       </c>
       <c r="E62" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
       <c r="F62" t="s">
         <v>485</v>
@@ -5880,10 +5886,10 @@
         <v>1122</v>
       </c>
       <c r="I62" t="s">
-        <v>1260</v>
+        <v>1252</v>
       </c>
       <c r="J62" t="s">
-        <v>1259</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
@@ -5897,7 +5903,7 @@
         <v>66</v>
       </c>
       <c r="E63" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
       <c r="F63" t="s">
         <v>486</v>
@@ -5909,7 +5915,7 @@
         <v>1128</v>
       </c>
       <c r="I63" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
@@ -5923,7 +5929,7 @@
         <v>67</v>
       </c>
       <c r="E64" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
       <c r="F64" t="s">
         <v>487</v>
@@ -5932,10 +5938,10 @@
         <v>899</v>
       </c>
       <c r="H64" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="I64" t="s">
-        <v>1257</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.3">
@@ -5949,7 +5955,7 @@
         <v>68</v>
       </c>
       <c r="E65" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
       <c r="F65" t="s">
         <v>488</v>
@@ -5961,7 +5967,7 @@
         <v>1129</v>
       </c>
       <c r="I65" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.3">
@@ -5975,7 +5981,7 @@
         <v>69</v>
       </c>
       <c r="E66" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
       <c r="F66" t="s">
         <v>489</v>
@@ -5987,7 +5993,7 @@
         <v>1129</v>
       </c>
       <c r="I66" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.3">
@@ -6001,7 +6007,7 @@
         <v>70</v>
       </c>
       <c r="E67" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
       <c r="F67" t="s">
         <v>490</v>
@@ -6013,7 +6019,7 @@
         <v>1130</v>
       </c>
       <c r="I67" t="s">
-        <v>1260</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.3">
@@ -6027,7 +6033,7 @@
         <v>71</v>
       </c>
       <c r="E68" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
       <c r="F68" t="s">
         <v>491</v>
@@ -6039,7 +6045,7 @@
         <v>1134</v>
       </c>
       <c r="I68" t="s">
-        <v>1262</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.3">
@@ -6053,7 +6059,7 @@
         <v>72</v>
       </c>
       <c r="E69" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
       <c r="F69" t="s">
         <v>492</v>
@@ -6062,10 +6068,10 @@
         <v>902</v>
       </c>
       <c r="H69" t="s">
-        <v>1250</v>
+        <v>1242</v>
       </c>
       <c r="I69" t="s">
-        <v>1260</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.3">
@@ -6079,7 +6085,7 @@
         <v>73</v>
       </c>
       <c r="E70" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
       <c r="F70" t="s">
         <v>493</v>
@@ -6088,10 +6094,10 @@
         <v>860</v>
       </c>
       <c r="H70" t="s">
-        <v>1263</v>
+        <v>1255</v>
       </c>
       <c r="I70" t="s">
-        <v>1262</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.3">
@@ -6105,7 +6111,7 @@
         <v>74</v>
       </c>
       <c r="E71" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
       <c r="F71" t="s">
         <v>494</v>
@@ -6114,10 +6120,10 @@
         <v>903</v>
       </c>
       <c r="H71" t="s">
-        <v>1263</v>
+        <v>1255</v>
       </c>
       <c r="I71" t="s">
-        <v>1262</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.3">
@@ -6131,7 +6137,7 @@
         <v>75</v>
       </c>
       <c r="E72" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F72" t="s">
         <v>495</v>
@@ -6143,7 +6149,7 @@
         <v>1136</v>
       </c>
       <c r="I72" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.3">
@@ -6157,7 +6163,7 @@
         <v>76</v>
       </c>
       <c r="E73" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F73" t="s">
         <v>496</v>
@@ -6169,7 +6175,7 @@
         <v>1136</v>
       </c>
       <c r="I73" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.3">
@@ -6183,7 +6189,7 @@
         <v>77</v>
       </c>
       <c r="E74" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F74" t="s">
         <v>497</v>
@@ -6195,19 +6201,19 @@
         <v>1136</v>
       </c>
       <c r="I74" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
       <c r="K74" t="s">
         <v>1137</v>
       </c>
       <c r="L74" t="s">
-        <v>1260</v>
+        <v>1252</v>
       </c>
       <c r="M74" t="s">
         <v>1139</v>
       </c>
       <c r="N74" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.3">
@@ -6221,7 +6227,7 @@
         <v>78</v>
       </c>
       <c r="E75" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F75" t="s">
         <v>498</v>
@@ -6233,19 +6239,19 @@
         <v>1136</v>
       </c>
       <c r="I75" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
       <c r="K75" t="s">
         <v>1137</v>
       </c>
       <c r="L75" t="s">
-        <v>1260</v>
+        <v>1252</v>
       </c>
       <c r="M75" t="s">
         <v>1139</v>
       </c>
       <c r="N75" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.3">
@@ -6259,7 +6265,7 @@
         <v>79</v>
       </c>
       <c r="E76" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F76" t="s">
         <v>499</v>
@@ -6271,7 +6277,7 @@
         <v>1136</v>
       </c>
       <c r="I76" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.3">
@@ -6285,7 +6291,7 @@
         <v>80</v>
       </c>
       <c r="E77" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F77" t="s">
         <v>500</v>
@@ -6297,7 +6303,7 @@
         <v>1137</v>
       </c>
       <c r="I77" t="s">
-        <v>1260</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.3">
@@ -6311,7 +6317,7 @@
         <v>81</v>
       </c>
       <c r="E78" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F78" t="s">
         <v>501</v>
@@ -6323,7 +6329,7 @@
         <v>1137</v>
       </c>
       <c r="I78" t="s">
-        <v>1260</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.3">
@@ -6337,7 +6343,7 @@
         <v>82</v>
       </c>
       <c r="E79" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F79" t="s">
         <v>502</v>
@@ -6349,7 +6355,7 @@
         <v>1138</v>
       </c>
       <c r="I79" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.3">
@@ -6363,7 +6369,7 @@
         <v>83</v>
       </c>
       <c r="E80" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F80" t="s">
         <v>503</v>
@@ -6375,7 +6381,7 @@
         <v>1139</v>
       </c>
       <c r="I80" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
@@ -6389,7 +6395,7 @@
         <v>84</v>
       </c>
       <c r="E81" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F81" t="s">
         <v>504</v>
@@ -6398,10 +6404,10 @@
         <v>913</v>
       </c>
       <c r="H81" t="s">
-        <v>1232</v>
+        <v>1281</v>
       </c>
       <c r="I81" t="s">
-        <v>1260</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
@@ -6415,7 +6421,7 @@
         <v>85</v>
       </c>
       <c r="E82" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F82" t="s">
         <v>505</v>
@@ -6424,10 +6430,10 @@
         <v>914</v>
       </c>
       <c r="H82" t="s">
-        <v>1232</v>
+        <v>1281</v>
       </c>
       <c r="I82" t="s">
-        <v>1260</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
@@ -6441,7 +6447,7 @@
         <v>86</v>
       </c>
       <c r="E83" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F83" t="s">
         <v>506</v>
@@ -6450,10 +6456,10 @@
         <v>915</v>
       </c>
       <c r="H83" t="s">
-        <v>1232</v>
+        <v>1281</v>
       </c>
       <c r="I83" t="s">
-        <v>1260</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
@@ -6467,7 +6473,7 @@
         <v>87</v>
       </c>
       <c r="E84" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F84" t="s">
         <v>507</v>
@@ -6479,7 +6485,7 @@
         <v>1140</v>
       </c>
       <c r="I84" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
@@ -6493,7 +6499,7 @@
         <v>88</v>
       </c>
       <c r="E85" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F85" t="s">
         <v>508</v>
@@ -6505,7 +6511,7 @@
         <v>1140</v>
       </c>
       <c r="I85" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
@@ -6519,7 +6525,7 @@
         <v>89</v>
       </c>
       <c r="E86" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F86" t="s">
         <v>509</v>
@@ -6531,7 +6537,7 @@
         <v>1140</v>
       </c>
       <c r="I86" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
@@ -6545,7 +6551,7 @@
         <v>90</v>
       </c>
       <c r="E87" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F87" t="s">
         <v>510</v>
@@ -6557,7 +6563,7 @@
         <v>1140</v>
       </c>
       <c r="I87" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
@@ -6571,7 +6577,7 @@
         <v>91</v>
       </c>
       <c r="E88" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F88" t="s">
         <v>511</v>
@@ -6583,7 +6589,7 @@
         <v>1140</v>
       </c>
       <c r="I88" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
@@ -6597,7 +6603,7 @@
         <v>92</v>
       </c>
       <c r="E89" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F89" t="s">
         <v>512</v>
@@ -6606,10 +6612,10 @@
         <v>850</v>
       </c>
       <c r="H89" t="s">
-        <v>1234</v>
+        <v>1229</v>
       </c>
       <c r="I89" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
@@ -6623,7 +6629,7 @@
         <v>93</v>
       </c>
       <c r="E90" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F90" t="s">
         <v>513</v>
@@ -6635,7 +6641,7 @@
         <v>1141</v>
       </c>
       <c r="I90" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
@@ -6649,7 +6655,7 @@
         <v>94</v>
       </c>
       <c r="E91" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F91" t="s">
         <v>514</v>
@@ -6658,10 +6664,10 @@
         <v>919</v>
       </c>
       <c r="H91" t="s">
-        <v>1233</v>
+        <v>1283</v>
       </c>
       <c r="I91" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
@@ -6675,7 +6681,7 @@
         <v>95</v>
       </c>
       <c r="E92" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F92" t="s">
         <v>515</v>
@@ -6684,10 +6690,10 @@
         <v>920</v>
       </c>
       <c r="H92" t="s">
-        <v>1233</v>
+        <v>1283</v>
       </c>
       <c r="I92" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
@@ -6701,7 +6707,7 @@
         <v>96</v>
       </c>
       <c r="E93" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F93" t="s">
         <v>516</v>
@@ -6710,10 +6716,10 @@
         <v>921</v>
       </c>
       <c r="H93" t="s">
-        <v>1236</v>
+        <v>1285</v>
       </c>
       <c r="I93" t="s">
-        <v>1260</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
@@ -6727,7 +6733,7 @@
         <v>97</v>
       </c>
       <c r="E94" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F94" t="s">
         <v>517</v>
@@ -6736,10 +6742,10 @@
         <v>922</v>
       </c>
       <c r="H94" t="s">
-        <v>1236</v>
+        <v>1285</v>
       </c>
       <c r="I94" t="s">
-        <v>1260</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
@@ -6753,7 +6759,7 @@
         <v>98</v>
       </c>
       <c r="E95" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F95" t="s">
         <v>518</v>
@@ -6762,10 +6768,10 @@
         <v>856</v>
       </c>
       <c r="H95" t="s">
-        <v>1236</v>
+        <v>1285</v>
       </c>
       <c r="I95" t="s">
-        <v>1260</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
@@ -6779,7 +6785,7 @@
         <v>99</v>
       </c>
       <c r="E96" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F96" t="s">
         <v>519</v>
@@ -6788,10 +6794,10 @@
         <v>923</v>
       </c>
       <c r="H96" t="s">
-        <v>1236</v>
+        <v>1285</v>
       </c>
       <c r="I96" t="s">
-        <v>1260</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
@@ -6805,7 +6811,7 @@
         <v>100</v>
       </c>
       <c r="E97" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F97" t="s">
         <v>520</v>
@@ -6817,7 +6823,7 @@
         <v>1143</v>
       </c>
       <c r="I97" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
@@ -6831,7 +6837,7 @@
         <v>101</v>
       </c>
       <c r="E98" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F98" t="s">
         <v>521</v>
@@ -6840,10 +6846,10 @@
         <v>924</v>
       </c>
       <c r="H98" t="s">
-        <v>1235</v>
+        <v>1230</v>
       </c>
       <c r="I98" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
@@ -6857,7 +6863,7 @@
         <v>102</v>
       </c>
       <c r="E99" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F99" t="s">
         <v>522</v>
@@ -6866,10 +6872,10 @@
         <v>916</v>
       </c>
       <c r="H99" t="s">
-        <v>1235</v>
+        <v>1230</v>
       </c>
       <c r="I99" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
@@ -6883,7 +6889,7 @@
         <v>103</v>
       </c>
       <c r="E100" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F100" t="s">
         <v>523</v>
@@ -6892,10 +6898,10 @@
         <v>925</v>
       </c>
       <c r="H100" t="s">
-        <v>1235</v>
+        <v>1230</v>
       </c>
       <c r="I100" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
@@ -6909,7 +6915,7 @@
         <v>104</v>
       </c>
       <c r="E101" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F101" t="s">
         <v>524</v>
@@ -6918,10 +6924,10 @@
         <v>926</v>
       </c>
       <c r="H101" t="s">
-        <v>1235</v>
+        <v>1230</v>
       </c>
       <c r="I101" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.3">
@@ -6935,7 +6941,7 @@
         <v>105</v>
       </c>
       <c r="E102" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F102" t="s">
         <v>525</v>
@@ -6944,10 +6950,10 @@
         <v>908</v>
       </c>
       <c r="H102" t="s">
-        <v>1235</v>
+        <v>1230</v>
       </c>
       <c r="I102" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
@@ -6961,7 +6967,7 @@
         <v>106</v>
       </c>
       <c r="E103" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F103" t="s">
         <v>526</v>
@@ -6970,13 +6976,13 @@
         <v>927</v>
       </c>
       <c r="H103" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="I103" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
       <c r="J103" t="s">
-        <v>1259</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.3">
@@ -6990,7 +6996,7 @@
         <v>107</v>
       </c>
       <c r="E104" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F104" t="s">
         <v>527</v>
@@ -6999,13 +7005,13 @@
         <v>920</v>
       </c>
       <c r="H104" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="I104" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
       <c r="J104" t="s">
-        <v>1259</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.3">
@@ -7019,7 +7025,7 @@
         <v>108</v>
       </c>
       <c r="E105" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F105" t="s">
         <v>528</v>
@@ -7031,7 +7037,7 @@
         <v>1144</v>
       </c>
       <c r="I105" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
@@ -7045,7 +7051,7 @@
         <v>109</v>
       </c>
       <c r="E106" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F106" t="s">
         <v>529</v>
@@ -7057,7 +7063,7 @@
         <v>1144</v>
       </c>
       <c r="I106" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
@@ -7071,7 +7077,7 @@
         <v>110</v>
       </c>
       <c r="E107" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F107" t="s">
         <v>530</v>
@@ -7083,7 +7089,7 @@
         <v>1144</v>
       </c>
       <c r="I107" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.3">
@@ -7097,7 +7103,7 @@
         <v>111</v>
       </c>
       <c r="E108" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F108" t="s">
         <v>531</v>
@@ -7109,7 +7115,7 @@
         <v>1144</v>
       </c>
       <c r="I108" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.3">
@@ -7123,7 +7129,7 @@
         <v>112</v>
       </c>
       <c r="E109" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F109" t="s">
         <v>532</v>
@@ -7132,10 +7138,10 @@
         <v>932</v>
       </c>
       <c r="H109" t="s">
-        <v>1232</v>
+        <v>1281</v>
       </c>
       <c r="I109" t="s">
-        <v>1260</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
@@ -7149,7 +7155,7 @@
         <v>113</v>
       </c>
       <c r="E110" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F110" t="s">
         <v>533</v>
@@ -7158,10 +7164,10 @@
         <v>856</v>
       </c>
       <c r="H110" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="I110" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
@@ -7175,7 +7181,7 @@
         <v>114</v>
       </c>
       <c r="E111" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F111" t="s">
         <v>534</v>
@@ -7184,10 +7190,10 @@
         <v>926</v>
       </c>
       <c r="H111" t="s">
-        <v>1233</v>
+        <v>1283</v>
       </c>
       <c r="I111" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.3">
@@ -7201,7 +7207,7 @@
         <v>115</v>
       </c>
       <c r="E112" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F112" t="s">
         <v>535</v>
@@ -7213,7 +7219,7 @@
         <v>1145</v>
       </c>
       <c r="I112" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
@@ -7227,7 +7233,7 @@
         <v>116</v>
       </c>
       <c r="E113" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F113" t="s">
         <v>536</v>
@@ -7236,10 +7242,10 @@
         <v>933</v>
       </c>
       <c r="H113" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="I113" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
@@ -7253,7 +7259,7 @@
         <v>117</v>
       </c>
       <c r="E114" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F114" t="s">
         <v>537</v>
@@ -7262,10 +7268,10 @@
         <v>850</v>
       </c>
       <c r="H114" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="I114" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
@@ -7279,7 +7285,7 @@
         <v>118</v>
       </c>
       <c r="E115" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F115" t="s">
         <v>538</v>
@@ -7288,10 +7294,10 @@
         <v>856</v>
       </c>
       <c r="H115" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="I115" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
@@ -7305,7 +7311,7 @@
         <v>119</v>
       </c>
       <c r="E116" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F116" t="s">
         <v>539</v>
@@ -7317,7 +7323,7 @@
         <v>1146</v>
       </c>
       <c r="I116" t="s">
-        <v>1260</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
@@ -7331,7 +7337,7 @@
         <v>120</v>
       </c>
       <c r="E117" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F117" t="s">
         <v>540</v>
@@ -7343,7 +7349,7 @@
         <v>1146</v>
       </c>
       <c r="I117" t="s">
-        <v>1260</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
@@ -7357,7 +7363,7 @@
         <v>121</v>
       </c>
       <c r="E118" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F118" t="s">
         <v>541</v>
@@ -7369,7 +7375,7 @@
         <v>1146</v>
       </c>
       <c r="I118" t="s">
-        <v>1260</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
@@ -7383,7 +7389,7 @@
         <v>122</v>
       </c>
       <c r="E119" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F119" t="s">
         <v>542</v>
@@ -7392,10 +7398,10 @@
         <v>937</v>
       </c>
       <c r="H119" t="s">
-        <v>1239</v>
+        <v>1279</v>
       </c>
       <c r="I119" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
@@ -7409,7 +7415,7 @@
         <v>123</v>
       </c>
       <c r="E120" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F120" t="s">
         <v>543</v>
@@ -7418,10 +7424,10 @@
         <v>850</v>
       </c>
       <c r="H120" t="s">
-        <v>1239</v>
+        <v>1279</v>
       </c>
       <c r="I120" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.3">
@@ -7435,7 +7441,7 @@
         <v>124</v>
       </c>
       <c r="E121" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F121" t="s">
         <v>544</v>
@@ -7444,10 +7450,10 @@
         <v>938</v>
       </c>
       <c r="H121" t="s">
-        <v>1239</v>
+        <v>1279</v>
       </c>
       <c r="I121" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
@@ -7461,7 +7467,7 @@
         <v>125</v>
       </c>
       <c r="E122" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F122" t="s">
         <v>545</v>
@@ -7470,10 +7476,10 @@
         <v>939</v>
       </c>
       <c r="H122" t="s">
-        <v>1264</v>
+        <v>1256</v>
       </c>
       <c r="I122" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
@@ -7487,7 +7493,7 @@
         <v>126</v>
       </c>
       <c r="E123" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F123" t="s">
         <v>546</v>
@@ -7499,7 +7505,7 @@
         <v>1147</v>
       </c>
       <c r="I123" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
@@ -7513,7 +7519,7 @@
         <v>127</v>
       </c>
       <c r="E124" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F124" t="s">
         <v>547</v>
@@ -7525,7 +7531,7 @@
         <v>1147</v>
       </c>
       <c r="I124" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
@@ -7539,7 +7545,7 @@
         <v>128</v>
       </c>
       <c r="E125" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F125" t="s">
         <v>548</v>
@@ -7551,7 +7557,7 @@
         <v>1148</v>
       </c>
       <c r="I125" t="s">
-        <v>1260</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
@@ -7565,7 +7571,7 @@
         <v>129</v>
       </c>
       <c r="E126" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F126" t="s">
         <v>549</v>
@@ -7577,7 +7583,7 @@
         <v>1148</v>
       </c>
       <c r="I126" t="s">
-        <v>1260</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
@@ -7591,7 +7597,7 @@
         <v>130</v>
       </c>
       <c r="E127" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F127" t="s">
         <v>550</v>
@@ -7603,7 +7609,7 @@
         <v>1149</v>
       </c>
       <c r="I127" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
@@ -7617,7 +7623,7 @@
         <v>131</v>
       </c>
       <c r="E128" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F128" t="s">
         <v>551</v>
@@ -7629,7 +7635,7 @@
         <v>1150</v>
       </c>
       <c r="I128" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
@@ -7643,7 +7649,7 @@
         <v>132</v>
       </c>
       <c r="E129" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F129" t="s">
         <v>552</v>
@@ -7655,7 +7661,7 @@
         <v>1150</v>
       </c>
       <c r="I129" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
@@ -7669,7 +7675,7 @@
         <v>133</v>
       </c>
       <c r="E130" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F130" t="s">
         <v>553</v>
@@ -7678,10 +7684,10 @@
         <v>942</v>
       </c>
       <c r="H130" t="s">
-        <v>1151</v>
+        <v>1280</v>
       </c>
       <c r="I130" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
@@ -7695,7 +7701,7 @@
         <v>134</v>
       </c>
       <c r="E131" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F131" t="s">
         <v>554</v>
@@ -7704,10 +7710,10 @@
         <v>943</v>
       </c>
       <c r="H131" t="s">
-        <v>1151</v>
+        <v>1280</v>
       </c>
       <c r="I131" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
@@ -7721,7 +7727,7 @@
         <v>135</v>
       </c>
       <c r="E132" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F132" t="s">
         <v>555</v>
@@ -7730,10 +7736,10 @@
         <v>944</v>
       </c>
       <c r="H132" t="s">
-        <v>1151</v>
+        <v>1280</v>
       </c>
       <c r="I132" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
@@ -7747,7 +7753,7 @@
         <v>136</v>
       </c>
       <c r="E133" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F133" t="s">
         <v>556</v>
@@ -7756,10 +7762,10 @@
         <v>945</v>
       </c>
       <c r="H133" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="I133" t="s">
-        <v>1260</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
@@ -7773,7 +7779,7 @@
         <v>137</v>
       </c>
       <c r="E134" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F134" t="s">
         <v>557</v>
@@ -7782,10 +7788,10 @@
         <v>862</v>
       </c>
       <c r="H134" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="I134" t="s">
-        <v>1260</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
@@ -7799,7 +7805,7 @@
         <v>138</v>
       </c>
       <c r="E135" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F135" t="s">
         <v>558</v>
@@ -7808,10 +7814,10 @@
         <v>946</v>
       </c>
       <c r="H135" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="I135" t="s">
-        <v>1260</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
@@ -7825,7 +7831,7 @@
         <v>139</v>
       </c>
       <c r="E136" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F136" t="s">
         <v>559</v>
@@ -7834,10 +7840,10 @@
         <v>856</v>
       </c>
       <c r="H136" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="I136" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
@@ -7851,7 +7857,7 @@
         <v>140</v>
       </c>
       <c r="E137" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F137" t="s">
         <v>560</v>
@@ -7860,10 +7866,10 @@
         <v>937</v>
       </c>
       <c r="H137" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="I137" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
@@ -7877,7 +7883,7 @@
         <v>141</v>
       </c>
       <c r="E138" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F138" t="s">
         <v>561</v>
@@ -7886,10 +7892,10 @@
         <v>856</v>
       </c>
       <c r="H138" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="I138" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
@@ -7903,7 +7909,7 @@
         <v>142</v>
       </c>
       <c r="E139" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F139" t="s">
         <v>562</v>
@@ -7912,10 +7918,10 @@
         <v>947</v>
       </c>
       <c r="H139" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="I139" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
@@ -7929,7 +7935,7 @@
         <v>143</v>
       </c>
       <c r="E140" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F140" t="s">
         <v>563</v>
@@ -7938,10 +7944,10 @@
         <v>856</v>
       </c>
       <c r="H140" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="I140" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
@@ -7955,7 +7961,7 @@
         <v>144</v>
       </c>
       <c r="E141" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F141" t="s">
         <v>564</v>
@@ -7967,7 +7973,7 @@
         <v>1142</v>
       </c>
       <c r="I141" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
@@ -7981,7 +7987,7 @@
         <v>145</v>
       </c>
       <c r="E142" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F142" t="s">
         <v>565</v>
@@ -7990,10 +7996,10 @@
         <v>947</v>
       </c>
       <c r="H142" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="I142" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
@@ -8007,7 +8013,7 @@
         <v>146</v>
       </c>
       <c r="E143" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F143" t="s">
         <v>566</v>
@@ -8016,10 +8022,10 @@
         <v>948</v>
       </c>
       <c r="H143" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="I143" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
@@ -8033,7 +8039,7 @@
         <v>147</v>
       </c>
       <c r="E144" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F144" t="s">
         <v>567</v>
@@ -8042,10 +8048,10 @@
         <v>949</v>
       </c>
       <c r="H144" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="I144" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
@@ -8059,7 +8065,7 @@
         <v>148</v>
       </c>
       <c r="E145" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F145" t="s">
         <v>568</v>
@@ -8068,10 +8074,10 @@
         <v>950</v>
       </c>
       <c r="H145" t="s">
-        <v>1276</v>
+        <v>1268</v>
       </c>
       <c r="I145" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
@@ -8085,7 +8091,7 @@
         <v>149</v>
       </c>
       <c r="E146" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F146" t="s">
         <v>569</v>
@@ -8094,10 +8100,10 @@
         <v>951</v>
       </c>
       <c r="H146" t="s">
-        <v>1280</v>
+        <v>1272</v>
       </c>
       <c r="I146" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.3">
@@ -8111,7 +8117,7 @@
         <v>150</v>
       </c>
       <c r="E147" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F147" t="s">
         <v>570</v>
@@ -8120,10 +8126,10 @@
         <v>952</v>
       </c>
       <c r="H147" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="I147" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
@@ -8137,7 +8143,7 @@
         <v>151</v>
       </c>
       <c r="E148" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F148" t="s">
         <v>571</v>
@@ -8146,10 +8152,10 @@
         <v>953</v>
       </c>
       <c r="H148" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="I148" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
@@ -8163,7 +8169,7 @@
         <v>152</v>
       </c>
       <c r="E149" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F149" t="s">
         <v>572</v>
@@ -8172,10 +8178,10 @@
         <v>954</v>
       </c>
       <c r="H149" t="s">
-        <v>1240</v>
+        <v>1276</v>
       </c>
       <c r="I149" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
@@ -8189,7 +8195,7 @@
         <v>153</v>
       </c>
       <c r="E150" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F150" t="s">
         <v>573</v>
@@ -8198,10 +8204,10 @@
         <v>856</v>
       </c>
       <c r="H150" t="s">
-        <v>1240</v>
+        <v>1276</v>
       </c>
       <c r="I150" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
@@ -8215,7 +8221,7 @@
         <v>154</v>
       </c>
       <c r="E151" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F151" t="s">
         <v>574</v>
@@ -8224,10 +8230,10 @@
         <v>955</v>
       </c>
       <c r="H151" t="s">
-        <v>1241</v>
+        <v>1233</v>
       </c>
       <c r="I151" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
@@ -8241,7 +8247,7 @@
         <v>155</v>
       </c>
       <c r="E152" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F152" t="s">
         <v>575</v>
@@ -8250,10 +8256,10 @@
         <v>956</v>
       </c>
       <c r="H152" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="I152" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
@@ -8267,7 +8273,7 @@
         <v>156</v>
       </c>
       <c r="E153" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F153" t="s">
         <v>576</v>
@@ -8276,10 +8282,10 @@
         <v>856</v>
       </c>
       <c r="H153" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="I153" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
@@ -8293,7 +8299,7 @@
         <v>157</v>
       </c>
       <c r="E154" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F154" t="s">
         <v>577</v>
@@ -8302,10 +8308,10 @@
         <v>957</v>
       </c>
       <c r="H154" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="I154" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
@@ -8319,7 +8325,7 @@
         <v>158</v>
       </c>
       <c r="E155" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F155" t="s">
         <v>578</v>
@@ -8328,10 +8334,10 @@
         <v>856</v>
       </c>
       <c r="H155" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="I155" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
@@ -8345,7 +8351,7 @@
         <v>159</v>
       </c>
       <c r="E156" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F156" t="s">
         <v>579</v>
@@ -8354,10 +8360,10 @@
         <v>958</v>
       </c>
       <c r="H156" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="I156" t="s">
-        <v>1260</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
@@ -8371,7 +8377,7 @@
         <v>160</v>
       </c>
       <c r="E157" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F157" t="s">
         <v>580</v>
@@ -8380,10 +8386,10 @@
         <v>959</v>
       </c>
       <c r="H157" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="I157" t="s">
-        <v>1260</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
@@ -8397,7 +8403,7 @@
         <v>161</v>
       </c>
       <c r="E158" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F158" t="s">
         <v>581</v>
@@ -8406,10 +8412,10 @@
         <v>856</v>
       </c>
       <c r="H158" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="I158" t="s">
-        <v>1260</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
@@ -8423,7 +8429,7 @@
         <v>162</v>
       </c>
       <c r="E159" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F159" t="s">
         <v>582</v>
@@ -8432,10 +8438,10 @@
         <v>908</v>
       </c>
       <c r="H159" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="I159" t="s">
-        <v>1260</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.3">
@@ -8449,7 +8455,7 @@
         <v>163</v>
       </c>
       <c r="E160" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F160" t="s">
         <v>583</v>
@@ -8458,10 +8464,10 @@
         <v>850</v>
       </c>
       <c r="H160" t="s">
-        <v>1273</v>
+        <v>1265</v>
       </c>
       <c r="I160" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.3">
@@ -8475,7 +8481,7 @@
         <v>164</v>
       </c>
       <c r="E161" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F161" t="s">
         <v>584</v>
@@ -8484,10 +8490,10 @@
         <v>856</v>
       </c>
       <c r="H161" t="s">
-        <v>1265</v>
+        <v>1257</v>
       </c>
       <c r="I161" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.3">
@@ -8501,7 +8507,7 @@
         <v>165</v>
       </c>
       <c r="E162" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F162" t="s">
         <v>585</v>
@@ -8510,10 +8516,10 @@
         <v>960</v>
       </c>
       <c r="H162" t="s">
-        <v>1242</v>
+        <v>1234</v>
       </c>
       <c r="I162" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.3">
@@ -8527,7 +8533,7 @@
         <v>166</v>
       </c>
       <c r="E163" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F163" t="s">
         <v>586</v>
@@ -8536,10 +8542,10 @@
         <v>864</v>
       </c>
       <c r="H163" t="s">
-        <v>1242</v>
+        <v>1234</v>
       </c>
       <c r="I163" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
@@ -8553,7 +8559,7 @@
         <v>167</v>
       </c>
       <c r="E164" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F164" t="s">
         <v>587</v>
@@ -8562,10 +8568,10 @@
         <v>850</v>
       </c>
       <c r="H164" t="s">
-        <v>1242</v>
+        <v>1234</v>
       </c>
       <c r="I164" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.3">
@@ -8579,7 +8585,7 @@
         <v>168</v>
       </c>
       <c r="E165" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F165" t="s">
         <v>588</v>
@@ -8588,10 +8594,10 @@
         <v>961</v>
       </c>
       <c r="H165" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="I165" t="s">
-        <v>1281</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.3">
@@ -8605,7 +8611,7 @@
         <v>169</v>
       </c>
       <c r="E166" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F166" t="s">
         <v>589</v>
@@ -8614,10 +8620,10 @@
         <v>962</v>
       </c>
       <c r="H166" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="I166" t="s">
-        <v>1281</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.3">
@@ -8631,7 +8637,7 @@
         <v>170</v>
       </c>
       <c r="E167" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F167" t="s">
         <v>590</v>
@@ -8640,10 +8646,10 @@
         <v>874</v>
       </c>
       <c r="H167" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="I167" t="s">
-        <v>1281</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.3">
@@ -8657,7 +8663,7 @@
         <v>171</v>
       </c>
       <c r="E168" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F168" t="s">
         <v>591</v>
@@ -8666,10 +8672,10 @@
         <v>963</v>
       </c>
       <c r="H168" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="I168" t="s">
-        <v>1281</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.3">
@@ -8683,7 +8689,7 @@
         <v>172</v>
       </c>
       <c r="E169" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F169" t="s">
         <v>592</v>
@@ -8692,10 +8698,10 @@
         <v>964</v>
       </c>
       <c r="H169" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="I169" t="s">
-        <v>1281</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.3">
@@ -8709,7 +8715,7 @@
         <v>173</v>
       </c>
       <c r="E170" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F170" t="s">
         <v>593</v>
@@ -8718,10 +8724,10 @@
         <v>965</v>
       </c>
       <c r="H170" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="I170" t="s">
-        <v>1281</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.3">
@@ -8735,7 +8741,7 @@
         <v>174</v>
       </c>
       <c r="E171" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F171" t="s">
         <v>594</v>
@@ -8744,10 +8750,10 @@
         <v>966</v>
       </c>
       <c r="H171" t="s">
-        <v>1282</v>
+        <v>1274</v>
       </c>
       <c r="I171" t="s">
-        <v>1281</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.3">
@@ -8761,7 +8767,7 @@
         <v>175</v>
       </c>
       <c r="E172" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="F172" t="s">
         <v>595</v>
@@ -8770,10 +8776,10 @@
         <v>967</v>
       </c>
       <c r="H172" t="s">
-        <v>1282</v>
+        <v>1274</v>
       </c>
       <c r="I172" t="s">
-        <v>1281</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.3">
@@ -8787,7 +8793,7 @@
         <v>176</v>
       </c>
       <c r="E173" t="s">
-        <v>1254</v>
+        <v>1246</v>
       </c>
       <c r="F173" t="s">
         <v>596</v>
@@ -8796,10 +8802,10 @@
         <v>968</v>
       </c>
       <c r="H173" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="I173" t="s">
-        <v>1260</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.3">
@@ -8813,7 +8819,7 @@
         <v>177</v>
       </c>
       <c r="E174" t="s">
-        <v>1254</v>
+        <v>1246</v>
       </c>
       <c r="F174" t="s">
         <v>597</v>
@@ -8822,10 +8828,10 @@
         <v>856</v>
       </c>
       <c r="H174" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="I174" t="s">
-        <v>1260</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.3">
@@ -8839,7 +8845,7 @@
         <v>178</v>
       </c>
       <c r="E175" t="s">
-        <v>1254</v>
+        <v>1246</v>
       </c>
       <c r="F175" t="s">
         <v>598</v>
@@ -8848,10 +8854,10 @@
         <v>856</v>
       </c>
       <c r="H175" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="I175" t="s">
-        <v>1260</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.3">
@@ -8865,7 +8871,7 @@
         <v>179</v>
       </c>
       <c r="E176" t="s">
-        <v>1254</v>
+        <v>1246</v>
       </c>
       <c r="F176" t="s">
         <v>599</v>
@@ -8874,10 +8880,10 @@
         <v>969</v>
       </c>
       <c r="H176" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="I176" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.3">
@@ -8891,7 +8897,7 @@
         <v>180</v>
       </c>
       <c r="E177" t="s">
-        <v>1254</v>
+        <v>1246</v>
       </c>
       <c r="F177" t="s">
         <v>600</v>
@@ -8900,10 +8906,10 @@
         <v>970</v>
       </c>
       <c r="H177" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="I177" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.3">
@@ -8917,7 +8923,7 @@
         <v>181</v>
       </c>
       <c r="E178" t="s">
-        <v>1254</v>
+        <v>1246</v>
       </c>
       <c r="F178" t="s">
         <v>601</v>
@@ -8926,10 +8932,10 @@
         <v>971</v>
       </c>
       <c r="H178" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="I178" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.3">
@@ -8943,7 +8949,7 @@
         <v>182</v>
       </c>
       <c r="E179" t="s">
-        <v>1254</v>
+        <v>1246</v>
       </c>
       <c r="F179" t="s">
         <v>602</v>
@@ -8952,10 +8958,10 @@
         <v>972</v>
       </c>
       <c r="H179" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="I179" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.3">
@@ -8969,7 +8975,7 @@
         <v>183</v>
       </c>
       <c r="E180" t="s">
-        <v>1254</v>
+        <v>1246</v>
       </c>
       <c r="F180" t="s">
         <v>603</v>
@@ -8978,10 +8984,10 @@
         <v>973</v>
       </c>
       <c r="H180" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="I180" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.3">
@@ -8995,7 +9001,7 @@
         <v>184</v>
       </c>
       <c r="E181" t="s">
-        <v>1254</v>
+        <v>1246</v>
       </c>
       <c r="F181" t="s">
         <v>604</v>
@@ -9004,10 +9010,10 @@
         <v>974</v>
       </c>
       <c r="H181" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="I181" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.3">
@@ -9021,7 +9027,7 @@
         <v>185</v>
       </c>
       <c r="E182" t="s">
-        <v>1254</v>
+        <v>1246</v>
       </c>
       <c r="F182" t="s">
         <v>605</v>
@@ -9030,10 +9036,10 @@
         <v>975</v>
       </c>
       <c r="H182" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="I182" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.3">
@@ -9047,7 +9053,7 @@
         <v>186</v>
       </c>
       <c r="E183" t="s">
-        <v>1254</v>
+        <v>1246</v>
       </c>
       <c r="F183" t="s">
         <v>606</v>
@@ -9056,10 +9062,10 @@
         <v>908</v>
       </c>
       <c r="H183" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="I183" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.3">
@@ -9073,7 +9079,7 @@
         <v>187</v>
       </c>
       <c r="E184" t="s">
-        <v>1254</v>
+        <v>1246</v>
       </c>
       <c r="F184" t="s">
         <v>607</v>
@@ -9082,13 +9088,13 @@
         <v>976</v>
       </c>
       <c r="H184" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="I184" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
       <c r="J184" t="s">
-        <v>1259</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.3">
@@ -9102,7 +9108,7 @@
         <v>188</v>
       </c>
       <c r="E185" t="s">
-        <v>1254</v>
+        <v>1246</v>
       </c>
       <c r="F185" t="s">
         <v>608</v>
@@ -9111,13 +9117,13 @@
         <v>977</v>
       </c>
       <c r="H185" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="I185" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
       <c r="J185" t="s">
-        <v>1259</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.3">
@@ -9131,7 +9137,7 @@
         <v>189</v>
       </c>
       <c r="E186" t="s">
-        <v>1254</v>
+        <v>1246</v>
       </c>
       <c r="F186" t="s">
         <v>609</v>
@@ -9140,13 +9146,13 @@
         <v>978</v>
       </c>
       <c r="H186" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="I186" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
       <c r="J186" t="s">
-        <v>1259</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.3">
@@ -9160,7 +9166,7 @@
         <v>190</v>
       </c>
       <c r="E187" t="s">
-        <v>1254</v>
+        <v>1246</v>
       </c>
       <c r="F187" t="s">
         <v>610</v>
@@ -9169,13 +9175,13 @@
         <v>979</v>
       </c>
       <c r="H187" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="I187" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
       <c r="J187" t="s">
-        <v>1259</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.3">
@@ -9189,7 +9195,7 @@
         <v>191</v>
       </c>
       <c r="E188" t="s">
-        <v>1254</v>
+        <v>1246</v>
       </c>
       <c r="F188" t="s">
         <v>611</v>
@@ -9198,13 +9204,13 @@
         <v>980</v>
       </c>
       <c r="H188" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="I188" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
       <c r="J188" t="s">
-        <v>1259</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.3">
@@ -9218,7 +9224,7 @@
         <v>192</v>
       </c>
       <c r="E189" t="s">
-        <v>1254</v>
+        <v>1246</v>
       </c>
       <c r="F189" t="s">
         <v>612</v>
@@ -9227,10 +9233,10 @@
         <v>981</v>
       </c>
       <c r="H189" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="I189" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.3">
@@ -9244,7 +9250,7 @@
         <v>193</v>
       </c>
       <c r="E190" t="s">
-        <v>1254</v>
+        <v>1246</v>
       </c>
       <c r="F190" t="s">
         <v>613</v>
@@ -9253,10 +9259,10 @@
         <v>982</v>
       </c>
       <c r="H190" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="I190" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.3">
@@ -9270,7 +9276,7 @@
         <v>194</v>
       </c>
       <c r="E191" t="s">
-        <v>1254</v>
+        <v>1246</v>
       </c>
       <c r="F191" t="s">
         <v>614</v>
@@ -9279,10 +9285,10 @@
         <v>983</v>
       </c>
       <c r="H191" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="I191" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.3">
@@ -9296,7 +9302,7 @@
         <v>195</v>
       </c>
       <c r="E192" t="s">
-        <v>1254</v>
+        <v>1246</v>
       </c>
       <c r="F192" t="s">
         <v>615</v>
@@ -9305,13 +9311,13 @@
         <v>984</v>
       </c>
       <c r="H192" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="I192" t="s">
-        <v>1257</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>1910</v>
       </c>
@@ -9322,7 +9328,7 @@
         <v>196</v>
       </c>
       <c r="E193" t="s">
-        <v>1254</v>
+        <v>1246</v>
       </c>
       <c r="F193" t="s">
         <v>616</v>
@@ -9331,13 +9337,13 @@
         <v>985</v>
       </c>
       <c r="H193" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="I193" t="s">
-        <v>1257</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>1910</v>
       </c>
@@ -9348,7 +9354,7 @@
         <v>197</v>
       </c>
       <c r="E194" t="s">
-        <v>1254</v>
+        <v>1246</v>
       </c>
       <c r="F194" t="s">
         <v>617</v>
@@ -9357,13 +9363,13 @@
         <v>986</v>
       </c>
       <c r="H194" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="I194" t="s">
-        <v>1257</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>1910</v>
       </c>
@@ -9374,7 +9380,7 @@
         <v>198</v>
       </c>
       <c r="E195" t="s">
-        <v>1254</v>
+        <v>1246</v>
       </c>
       <c r="F195" t="s">
         <v>618</v>
@@ -9383,13 +9389,13 @@
         <v>987</v>
       </c>
       <c r="H195" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="I195" t="s">
-        <v>1257</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>1910</v>
       </c>
@@ -9400,7 +9406,7 @@
         <v>199</v>
       </c>
       <c r="E196" t="s">
-        <v>1254</v>
+        <v>1246</v>
       </c>
       <c r="F196" t="s">
         <v>619</v>
@@ -9409,13 +9415,13 @@
         <v>988</v>
       </c>
       <c r="H196" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="I196" t="s">
-        <v>1257</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>1910</v>
       </c>
@@ -9426,7 +9432,7 @@
         <v>200</v>
       </c>
       <c r="E197" t="s">
-        <v>1254</v>
+        <v>1246</v>
       </c>
       <c r="F197" t="s">
         <v>620</v>
@@ -9435,13 +9441,19 @@
         <v>989</v>
       </c>
       <c r="H197" t="s">
-        <v>1169</v>
+        <v>1277</v>
       </c>
       <c r="I197" t="s">
-        <v>1257</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1254</v>
+      </c>
+      <c r="K197" t="s">
+        <v>1278</v>
+      </c>
+      <c r="L197" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>1910</v>
       </c>
@@ -9452,7 +9464,7 @@
         <v>201</v>
       </c>
       <c r="E198" t="s">
-        <v>1254</v>
+        <v>1246</v>
       </c>
       <c r="F198" t="s">
         <v>621</v>
@@ -9461,13 +9473,13 @@
         <v>990</v>
       </c>
       <c r="H198" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="I198" t="s">
-        <v>1257</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>1910</v>
       </c>
@@ -9478,7 +9490,7 @@
         <v>202</v>
       </c>
       <c r="E199" t="s">
-        <v>1254</v>
+        <v>1246</v>
       </c>
       <c r="F199" t="s">
         <v>622</v>
@@ -9487,13 +9499,13 @@
         <v>908</v>
       </c>
       <c r="H199" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="I199" t="s">
-        <v>1257</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>1910</v>
       </c>
@@ -9504,7 +9516,7 @@
         <v>203</v>
       </c>
       <c r="E200" t="s">
-        <v>1254</v>
+        <v>1246</v>
       </c>
       <c r="F200" t="s">
         <v>623</v>
@@ -9513,13 +9525,13 @@
         <v>991</v>
       </c>
       <c r="H200" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="I200" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>1910</v>
       </c>
@@ -9530,7 +9542,7 @@
         <v>204</v>
       </c>
       <c r="E201" t="s">
-        <v>1254</v>
+        <v>1246</v>
       </c>
       <c r="F201" t="s">
         <v>624</v>
@@ -9539,13 +9551,13 @@
         <v>992</v>
       </c>
       <c r="H201" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="I201" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>1910</v>
       </c>
@@ -9556,7 +9568,7 @@
         <v>205</v>
       </c>
       <c r="E202" t="s">
-        <v>1254</v>
+        <v>1246</v>
       </c>
       <c r="F202" t="s">
         <v>625</v>
@@ -9565,13 +9577,13 @@
         <v>993</v>
       </c>
       <c r="H202" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="I202" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>1910</v>
       </c>
@@ -9582,7 +9594,7 @@
         <v>206</v>
       </c>
       <c r="E203" t="s">
-        <v>1254</v>
+        <v>1246</v>
       </c>
       <c r="F203" t="s">
         <v>626</v>
@@ -9591,13 +9603,13 @@
         <v>850</v>
       </c>
       <c r="H203" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="I203" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>1910</v>
       </c>
@@ -9608,7 +9620,7 @@
         <v>207</v>
       </c>
       <c r="E204" t="s">
-        <v>1254</v>
+        <v>1246</v>
       </c>
       <c r="F204" t="s">
         <v>627</v>
@@ -9617,13 +9629,13 @@
         <v>850</v>
       </c>
       <c r="H204" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="I204" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>1910</v>
       </c>
@@ -9634,7 +9646,7 @@
         <v>208</v>
       </c>
       <c r="E205" t="s">
-        <v>1254</v>
+        <v>1246</v>
       </c>
       <c r="F205" t="s">
         <v>628</v>
@@ -9643,13 +9655,13 @@
         <v>856</v>
       </c>
       <c r="H205" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="I205" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>1910</v>
       </c>
@@ -9660,7 +9672,7 @@
         <v>209</v>
       </c>
       <c r="E206" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F206" t="s">
         <v>629</v>
@@ -9669,13 +9681,13 @@
         <v>994</v>
       </c>
       <c r="H206" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="I206" t="s">
-        <v>1257</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>1910</v>
       </c>
@@ -9686,7 +9698,7 @@
         <v>210</v>
       </c>
       <c r="E207" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F207" t="s">
         <v>630</v>
@@ -9695,13 +9707,13 @@
         <v>995</v>
       </c>
       <c r="H207" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="I207" t="s">
-        <v>1257</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>1910</v>
       </c>
@@ -9712,7 +9724,7 @@
         <v>211</v>
       </c>
       <c r="E208" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F208" t="s">
         <v>631</v>
@@ -9721,10 +9733,10 @@
         <v>996</v>
       </c>
       <c r="H208" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="I208" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.3">
@@ -9738,7 +9750,7 @@
         <v>212</v>
       </c>
       <c r="E209" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F209" t="s">
         <v>632</v>
@@ -9747,10 +9759,10 @@
         <v>997</v>
       </c>
       <c r="H209" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="I209" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.3">
@@ -9764,7 +9776,7 @@
         <v>213</v>
       </c>
       <c r="E210" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F210" t="s">
         <v>633</v>
@@ -9773,10 +9785,10 @@
         <v>998</v>
       </c>
       <c r="H210" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="I210" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.3">
@@ -9790,7 +9802,7 @@
         <v>214</v>
       </c>
       <c r="E211" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F211" t="s">
         <v>634</v>
@@ -9799,10 +9811,10 @@
         <v>999</v>
       </c>
       <c r="H211" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="I211" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.3">
@@ -9816,7 +9828,7 @@
         <v>215</v>
       </c>
       <c r="E212" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F212" t="s">
         <v>635</v>
@@ -9825,10 +9837,10 @@
         <v>967</v>
       </c>
       <c r="H212" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="I212" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.3">
@@ -9842,7 +9854,7 @@
         <v>216</v>
       </c>
       <c r="E213" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F213" t="s">
         <v>636</v>
@@ -9851,10 +9863,10 @@
         <v>1000</v>
       </c>
       <c r="H213" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="I213" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.3">
@@ -9868,7 +9880,7 @@
         <v>217</v>
       </c>
       <c r="E214" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F214" t="s">
         <v>637</v>
@@ -9877,10 +9889,10 @@
         <v>1001</v>
       </c>
       <c r="H214" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="I214" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.3">
@@ -9894,7 +9906,7 @@
         <v>218</v>
       </c>
       <c r="E215" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F215" t="s">
         <v>638</v>
@@ -9903,10 +9915,10 @@
         <v>1002</v>
       </c>
       <c r="H215" t="s">
-        <v>1243</v>
+        <v>1235</v>
       </c>
       <c r="I215" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.3">
@@ -9920,7 +9932,7 @@
         <v>219</v>
       </c>
       <c r="E216" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F216" t="s">
         <v>639</v>
@@ -9929,10 +9941,10 @@
         <v>1003</v>
       </c>
       <c r="H216" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="I216" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.3">
@@ -9946,7 +9958,7 @@
         <v>220</v>
       </c>
       <c r="E217" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F217" t="s">
         <v>640</v>
@@ -9955,10 +9967,10 @@
         <v>1004</v>
       </c>
       <c r="H217" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="I217" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.3">
@@ -9972,7 +9984,7 @@
         <v>221</v>
       </c>
       <c r="E218" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F218" t="s">
         <v>641</v>
@@ -9981,10 +9993,10 @@
         <v>860</v>
       </c>
       <c r="H218" t="s">
-        <v>1243</v>
+        <v>1235</v>
       </c>
       <c r="I218" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.3">
@@ -9998,7 +10010,7 @@
         <v>222</v>
       </c>
       <c r="E219" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F219" t="s">
         <v>642</v>
@@ -10007,10 +10019,10 @@
         <v>951</v>
       </c>
       <c r="H219" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="I219" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.3">
@@ -10024,7 +10036,7 @@
         <v>223</v>
       </c>
       <c r="E220" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F220" t="s">
         <v>643</v>
@@ -10033,10 +10045,10 @@
         <v>1005</v>
       </c>
       <c r="H220" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="I220" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.3">
@@ -10050,7 +10062,7 @@
         <v>224</v>
       </c>
       <c r="E221" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F221" t="s">
         <v>644</v>
@@ -10059,10 +10071,10 @@
         <v>895</v>
       </c>
       <c r="H221" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="I221" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.3">
@@ -10076,7 +10088,7 @@
         <v>225</v>
       </c>
       <c r="E222" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F222" t="s">
         <v>645</v>
@@ -10085,10 +10097,10 @@
         <v>1006</v>
       </c>
       <c r="H222" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="I222" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.3">
@@ -10102,7 +10114,7 @@
         <v>226</v>
       </c>
       <c r="E223" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F223" t="s">
         <v>646</v>
@@ -10111,10 +10123,10 @@
         <v>1007</v>
       </c>
       <c r="H223" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="I223" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.3">
@@ -10128,7 +10140,7 @@
         <v>227</v>
       </c>
       <c r="E224" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F224" t="s">
         <v>647</v>
@@ -10137,10 +10149,10 @@
         <v>1008</v>
       </c>
       <c r="H224" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="I224" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.3">
@@ -10154,7 +10166,7 @@
         <v>228</v>
       </c>
       <c r="E225" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F225" t="s">
         <v>648</v>
@@ -10163,10 +10175,10 @@
         <v>874</v>
       </c>
       <c r="H225" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="I225" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.3">
@@ -10180,7 +10192,7 @@
         <v>229</v>
       </c>
       <c r="E226" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F226" t="s">
         <v>649</v>
@@ -10189,10 +10201,10 @@
         <v>1009</v>
       </c>
       <c r="H226" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="I226" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.3">
@@ -10206,7 +10218,7 @@
         <v>230</v>
       </c>
       <c r="E227" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F227" t="s">
         <v>650</v>
@@ -10215,10 +10227,10 @@
         <v>1010</v>
       </c>
       <c r="H227" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="I227" t="s">
-        <v>1262</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.3">
@@ -10232,7 +10244,7 @@
         <v>231</v>
       </c>
       <c r="E228" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F228" t="s">
         <v>651</v>
@@ -10241,10 +10253,10 @@
         <v>1011</v>
       </c>
       <c r="H228" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="I228" t="s">
-        <v>1262</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.3">
@@ -10258,7 +10270,7 @@
         <v>232</v>
       </c>
       <c r="E229" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F229" t="s">
         <v>652</v>
@@ -10267,10 +10279,10 @@
         <v>1012</v>
       </c>
       <c r="H229" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="I229" t="s">
-        <v>1262</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.3">
@@ -10284,7 +10296,7 @@
         <v>233</v>
       </c>
       <c r="E230" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F230" t="s">
         <v>652</v>
@@ -10293,10 +10305,10 @@
         <v>1013</v>
       </c>
       <c r="H230" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="I230" t="s">
-        <v>1262</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.3">
@@ -10310,7 +10322,7 @@
         <v>234</v>
       </c>
       <c r="E231" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F231" t="s">
         <v>653</v>
@@ -10322,7 +10334,7 @@
         <v>1117</v>
       </c>
       <c r="I231" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.3">
@@ -10336,7 +10348,7 @@
         <v>235</v>
       </c>
       <c r="E232" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F232" t="s">
         <v>654</v>
@@ -10348,7 +10360,7 @@
         <v>1117</v>
       </c>
       <c r="I232" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.3">
@@ -10362,7 +10374,7 @@
         <v>236</v>
       </c>
       <c r="E233" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F233" t="s">
         <v>655</v>
@@ -10371,10 +10383,10 @@
         <v>1014</v>
       </c>
       <c r="H233" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="I233" t="s">
-        <v>1260</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.3">
@@ -10388,7 +10400,7 @@
         <v>237</v>
       </c>
       <c r="E234" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F234" t="s">
         <v>656</v>
@@ -10397,10 +10409,10 @@
         <v>937</v>
       </c>
       <c r="H234" t="s">
-        <v>1244</v>
+        <v>1236</v>
       </c>
       <c r="I234" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.3">
@@ -10414,7 +10426,7 @@
         <v>238</v>
       </c>
       <c r="E235" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F235" t="s">
         <v>657</v>
@@ -10423,10 +10435,10 @@
         <v>1015</v>
       </c>
       <c r="H235" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="I235" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.3">
@@ -10440,7 +10452,7 @@
         <v>239</v>
       </c>
       <c r="E236" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F236" t="s">
         <v>658</v>
@@ -10449,10 +10461,10 @@
         <v>860</v>
       </c>
       <c r="H236" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="I236" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.3">
@@ -10466,7 +10478,7 @@
         <v>240</v>
       </c>
       <c r="E237" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F237" t="s">
         <v>659</v>
@@ -10475,10 +10487,10 @@
         <v>939</v>
       </c>
       <c r="H237" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="I237" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.3">
@@ -10492,7 +10504,7 @@
         <v>241</v>
       </c>
       <c r="E238" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F238" t="s">
         <v>660</v>
@@ -10501,10 +10513,10 @@
         <v>847</v>
       </c>
       <c r="H238" t="s">
-        <v>1245</v>
+        <v>1237</v>
       </c>
       <c r="I238" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.3">
@@ -10518,7 +10530,7 @@
         <v>242</v>
       </c>
       <c r="E239" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F239" t="s">
         <v>661</v>
@@ -10527,10 +10539,10 @@
         <v>917</v>
       </c>
       <c r="H239" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="I239" t="s">
-        <v>1260</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.3">
@@ -10544,7 +10556,7 @@
         <v>243</v>
       </c>
       <c r="E240" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F240" t="s">
         <v>662</v>
@@ -10553,10 +10565,10 @@
         <v>1016</v>
       </c>
       <c r="H240" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="I240" t="s">
-        <v>1260</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.3">
@@ -10570,7 +10582,7 @@
         <v>244</v>
       </c>
       <c r="E241" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F241" t="s">
         <v>663</v>
@@ -10579,10 +10591,10 @@
         <v>1017</v>
       </c>
       <c r="H241" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="I241" t="s">
-        <v>1260</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.3">
@@ -10596,7 +10608,7 @@
         <v>245</v>
       </c>
       <c r="E242" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F242" t="s">
         <v>664</v>
@@ -10605,10 +10617,10 @@
         <v>1018</v>
       </c>
       <c r="H242" t="s">
-        <v>1244</v>
+        <v>1236</v>
       </c>
       <c r="I242" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.3">
@@ -10622,7 +10634,7 @@
         <v>246</v>
       </c>
       <c r="E243" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F243" t="s">
         <v>665</v>
@@ -10631,10 +10643,10 @@
         <v>1019</v>
       </c>
       <c r="H243" t="s">
-        <v>1245</v>
+        <v>1237</v>
       </c>
       <c r="I243" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.3">
@@ -10648,7 +10660,7 @@
         <v>247</v>
       </c>
       <c r="E244" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F244" t="s">
         <v>666</v>
@@ -10657,10 +10669,10 @@
         <v>1020</v>
       </c>
       <c r="H244" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="I244" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.3">
@@ -10674,7 +10686,7 @@
         <v>248</v>
       </c>
       <c r="E245" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F245" t="s">
         <v>667</v>
@@ -10683,10 +10695,10 @@
         <v>850</v>
       </c>
       <c r="H245" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="I245" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.3">
@@ -10700,7 +10712,7 @@
         <v>249</v>
       </c>
       <c r="E246" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F246" t="s">
         <v>668</v>
@@ -10709,10 +10721,10 @@
         <v>1021</v>
       </c>
       <c r="H246" t="s">
-        <v>1245</v>
+        <v>1237</v>
       </c>
       <c r="I246" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.3">
@@ -10726,7 +10738,7 @@
         <v>250</v>
       </c>
       <c r="E247" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F247" t="s">
         <v>669</v>
@@ -10735,10 +10747,10 @@
         <v>860</v>
       </c>
       <c r="H247" t="s">
-        <v>1268</v>
+        <v>1260</v>
       </c>
       <c r="I247" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.3">
@@ -10752,7 +10764,7 @@
         <v>251</v>
       </c>
       <c r="E248" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F248" t="s">
         <v>670</v>
@@ -10761,10 +10773,10 @@
         <v>1007</v>
       </c>
       <c r="H248" t="s">
-        <v>1269</v>
+        <v>1261</v>
       </c>
       <c r="I248" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.3">
@@ -10778,7 +10790,7 @@
         <v>252</v>
       </c>
       <c r="E249" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F249" t="s">
         <v>671</v>
@@ -10787,10 +10799,10 @@
         <v>1009</v>
       </c>
       <c r="H249" t="s">
-        <v>1269</v>
+        <v>1261</v>
       </c>
       <c r="I249" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.3">
@@ -10804,7 +10816,7 @@
         <v>253</v>
       </c>
       <c r="E250" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F250" t="s">
         <v>672</v>
@@ -10813,10 +10825,10 @@
         <v>1022</v>
       </c>
       <c r="H250" t="s">
-        <v>1269</v>
+        <v>1261</v>
       </c>
       <c r="I250" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.3">
@@ -10830,7 +10842,7 @@
         <v>254</v>
       </c>
       <c r="E251" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F251" t="s">
         <v>673</v>
@@ -10839,10 +10851,10 @@
         <v>1023</v>
       </c>
       <c r="H251" t="s">
-        <v>1245</v>
+        <v>1237</v>
       </c>
       <c r="I251" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.3">
@@ -10856,7 +10868,7 @@
         <v>255</v>
       </c>
       <c r="E252" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F252" t="s">
         <v>674</v>
@@ -10865,10 +10877,10 @@
         <v>1024</v>
       </c>
       <c r="H252" t="s">
-        <v>1244</v>
+        <v>1236</v>
       </c>
       <c r="I252" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.3">
@@ -10882,7 +10894,7 @@
         <v>256</v>
       </c>
       <c r="E253" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F253" t="s">
         <v>675</v>
@@ -10891,10 +10903,10 @@
         <v>1025</v>
       </c>
       <c r="H253" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="I253" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.3">
@@ -10908,7 +10920,7 @@
         <v>257</v>
       </c>
       <c r="E254" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F254" t="s">
         <v>676</v>
@@ -10917,10 +10929,10 @@
         <v>860</v>
       </c>
       <c r="H254" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="I254" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.3">
@@ -10934,7 +10946,7 @@
         <v>258</v>
       </c>
       <c r="E255" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F255" t="s">
         <v>677</v>
@@ -10946,7 +10958,7 @@
         <v>1131</v>
       </c>
       <c r="I255" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.3">
@@ -10960,7 +10972,7 @@
         <v>259</v>
       </c>
       <c r="E256" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F256" t="s">
         <v>678</v>
@@ -10972,7 +10984,7 @@
         <v>1131</v>
       </c>
       <c r="I256" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.3">
@@ -10986,7 +10998,7 @@
         <v>260</v>
       </c>
       <c r="E257" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F257" t="s">
         <v>679</v>
@@ -10995,10 +11007,10 @@
         <v>850</v>
       </c>
       <c r="H257" t="s">
-        <v>1270</v>
+        <v>1262</v>
       </c>
       <c r="I257" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.3">
@@ -11012,7 +11024,7 @@
         <v>261</v>
       </c>
       <c r="E258" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F258" t="s">
         <v>680</v>
@@ -11021,10 +11033,10 @@
         <v>1028</v>
       </c>
       <c r="H258" t="s">
-        <v>1271</v>
+        <v>1263</v>
       </c>
       <c r="I258" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.3">
@@ -11038,7 +11050,7 @@
         <v>262</v>
       </c>
       <c r="E259" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F259" t="s">
         <v>681</v>
@@ -11047,10 +11059,10 @@
         <v>1029</v>
       </c>
       <c r="H259" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="I259" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.3">
@@ -11064,7 +11076,7 @@
         <v>263</v>
       </c>
       <c r="E260" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F260" t="s">
         <v>682</v>
@@ -11073,10 +11085,10 @@
         <v>1030</v>
       </c>
       <c r="H260" t="s">
-        <v>1271</v>
+        <v>1263</v>
       </c>
       <c r="I260" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.3">
@@ -11090,7 +11102,7 @@
         <v>264</v>
       </c>
       <c r="E261" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F261" t="s">
         <v>683</v>
@@ -11099,10 +11111,10 @@
         <v>900</v>
       </c>
       <c r="H261" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="I261" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.3">
@@ -11116,7 +11128,7 @@
         <v>265</v>
       </c>
       <c r="E262" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F262" t="s">
         <v>684</v>
@@ -11125,10 +11137,10 @@
         <v>850</v>
       </c>
       <c r="H262" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="I262" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.3">
@@ -11142,7 +11154,7 @@
         <v>266</v>
       </c>
       <c r="E263" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F263" t="s">
         <v>685</v>
@@ -11154,7 +11166,7 @@
         <v>1131</v>
       </c>
       <c r="I263" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.3">
@@ -11168,7 +11180,7 @@
         <v>267</v>
       </c>
       <c r="E264" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F264" t="s">
         <v>686</v>
@@ -11180,7 +11192,7 @@
         <v>1131</v>
       </c>
       <c r="I264" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.3">
@@ -11194,7 +11206,7 @@
         <v>268</v>
       </c>
       <c r="E265" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F265" t="s">
         <v>687</v>
@@ -11206,7 +11218,7 @@
         <v>1131</v>
       </c>
       <c r="I265" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.3">
@@ -11220,7 +11232,7 @@
         <v>269</v>
       </c>
       <c r="E266" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F266" t="s">
         <v>688</v>
@@ -11229,10 +11241,10 @@
         <v>1033</v>
       </c>
       <c r="H266" t="s">
-        <v>1271</v>
+        <v>1263</v>
       </c>
       <c r="I266" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.3">
@@ -11246,7 +11258,7 @@
         <v>270</v>
       </c>
       <c r="E267" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F267" t="s">
         <v>689</v>
@@ -11255,10 +11267,10 @@
         <v>1034</v>
       </c>
       <c r="H267" t="s">
-        <v>1271</v>
+        <v>1263</v>
       </c>
       <c r="I267" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.3">
@@ -11272,7 +11284,7 @@
         <v>271</v>
       </c>
       <c r="E268" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F268" t="s">
         <v>690</v>
@@ -11281,10 +11293,10 @@
         <v>1035</v>
       </c>
       <c r="H268" t="s">
-        <v>1271</v>
+        <v>1263</v>
       </c>
       <c r="I268" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.3">
@@ -11298,7 +11310,7 @@
         <v>272</v>
       </c>
       <c r="E269" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F269" t="s">
         <v>691</v>
@@ -11307,10 +11319,10 @@
         <v>1036</v>
       </c>
       <c r="H269" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="I269" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.3">
@@ -11324,7 +11336,7 @@
         <v>273</v>
       </c>
       <c r="E270" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F270" t="s">
         <v>692</v>
@@ -11333,10 +11345,10 @@
         <v>886</v>
       </c>
       <c r="H270" t="s">
-        <v>1279</v>
+        <v>1271</v>
       </c>
       <c r="I270" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.3">
@@ -11350,7 +11362,7 @@
         <v>274</v>
       </c>
       <c r="E271" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F271" t="s">
         <v>693</v>
@@ -11359,10 +11371,10 @@
         <v>1037</v>
       </c>
       <c r="H271" t="s">
-        <v>1279</v>
+        <v>1271</v>
       </c>
       <c r="I271" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.3">
@@ -11376,7 +11388,7 @@
         <v>275</v>
       </c>
       <c r="E272" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F272" t="s">
         <v>694</v>
@@ -11385,10 +11397,10 @@
         <v>1038</v>
       </c>
       <c r="H272" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="I272" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.3">
@@ -11405,7 +11417,7 @@
         <v>276</v>
       </c>
       <c r="E273" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F273" t="s">
         <v>695</v>
@@ -11414,10 +11426,10 @@
         <v>960</v>
       </c>
       <c r="H273" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="I273" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.3">
@@ -11431,7 +11443,7 @@
         <v>277</v>
       </c>
       <c r="E274" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F274" t="s">
         <v>696</v>
@@ -11440,10 +11452,10 @@
         <v>1039</v>
       </c>
       <c r="H274" t="s">
-        <v>1279</v>
+        <v>1271</v>
       </c>
       <c r="I274" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.3">
@@ -11457,7 +11469,7 @@
         <v>278</v>
       </c>
       <c r="E275" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F275" t="s">
         <v>697</v>
@@ -11466,10 +11478,10 @@
         <v>954</v>
       </c>
       <c r="H275" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="I275" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.3">
@@ -11483,7 +11495,7 @@
         <v>279</v>
       </c>
       <c r="E276" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F276" t="s">
         <v>698</v>
@@ -11492,10 +11504,10 @@
         <v>1040</v>
       </c>
       <c r="H276" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="I276" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.3">
@@ -11509,7 +11521,7 @@
         <v>280</v>
       </c>
       <c r="E277" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F277" t="s">
         <v>699</v>
@@ -11518,13 +11530,13 @@
         <v>1041</v>
       </c>
       <c r="H277" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="I277" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
       <c r="J277" t="s">
-        <v>1259</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.3">
@@ -11538,7 +11550,7 @@
         <v>281</v>
       </c>
       <c r="E278" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F278" t="s">
         <v>700</v>
@@ -11547,13 +11559,13 @@
         <v>1042</v>
       </c>
       <c r="H278" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="I278" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
       <c r="J278" t="s">
-        <v>1259</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.3">
@@ -11567,7 +11579,7 @@
         <v>282</v>
       </c>
       <c r="E279" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F279" t="s">
         <v>701</v>
@@ -11576,13 +11588,13 @@
         <v>864</v>
       </c>
       <c r="H279" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="I279" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
       <c r="J279" t="s">
-        <v>1259</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.3">
@@ -11596,7 +11608,7 @@
         <v>283</v>
       </c>
       <c r="E280" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F280" t="s">
         <v>702</v>
@@ -11605,10 +11617,10 @@
         <v>888</v>
       </c>
       <c r="H280" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="I280" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.3">
@@ -11622,7 +11634,7 @@
         <v>284</v>
       </c>
       <c r="E281" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F281" t="s">
         <v>703</v>
@@ -11631,10 +11643,10 @@
         <v>1043</v>
       </c>
       <c r="H281" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="I281" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.3">
@@ -11648,7 +11660,7 @@
         <v>285</v>
       </c>
       <c r="E282" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F282" t="s">
         <v>704</v>
@@ -11657,10 +11669,10 @@
         <v>1044</v>
       </c>
       <c r="H282" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="I282" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.3">
@@ -11674,7 +11686,7 @@
         <v>286</v>
       </c>
       <c r="E283" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F283" t="s">
         <v>705</v>
@@ -11683,10 +11695,10 @@
         <v>850</v>
       </c>
       <c r="H283" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="I283" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.3">
@@ -11700,7 +11712,7 @@
         <v>287</v>
       </c>
       <c r="E284" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F284" t="s">
         <v>706</v>
@@ -11709,13 +11721,13 @@
         <v>1045</v>
       </c>
       <c r="H284" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="I284" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
       <c r="J284" t="s">
-        <v>1259</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.3">
@@ -11729,7 +11741,7 @@
         <v>288</v>
       </c>
       <c r="E285" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F285" t="s">
         <v>707</v>
@@ -11738,10 +11750,10 @@
         <v>850</v>
       </c>
       <c r="H285" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="I285" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.3">
@@ -11755,7 +11767,7 @@
         <v>289</v>
       </c>
       <c r="E286" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F286" t="s">
         <v>708</v>
@@ -11764,10 +11776,10 @@
         <v>1046</v>
       </c>
       <c r="H286" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="I286" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.3">
@@ -11781,7 +11793,7 @@
         <v>290</v>
       </c>
       <c r="E287" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F287" t="s">
         <v>709</v>
@@ -11790,13 +11802,13 @@
         <v>861</v>
       </c>
       <c r="H287" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="I287" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
       <c r="J287" t="s">
-        <v>1259</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.3">
@@ -11810,7 +11822,7 @@
         <v>291</v>
       </c>
       <c r="E288" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F288" t="s">
         <v>710</v>
@@ -11819,10 +11831,10 @@
         <v>901</v>
       </c>
       <c r="H288" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="I288" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.3">
@@ -11836,7 +11848,7 @@
         <v>292</v>
       </c>
       <c r="E289" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F289" t="s">
         <v>711</v>
@@ -11845,10 +11857,10 @@
         <v>860</v>
       </c>
       <c r="H289" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="I289" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.3">
@@ -11862,7 +11874,7 @@
         <v>293</v>
       </c>
       <c r="E290" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F290" t="s">
         <v>712</v>
@@ -11871,10 +11883,10 @@
         <v>860</v>
       </c>
       <c r="H290" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="I290" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.3">
@@ -11888,7 +11900,7 @@
         <v>294</v>
       </c>
       <c r="E291" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F291" t="s">
         <v>713</v>
@@ -11897,10 +11909,10 @@
         <v>1047</v>
       </c>
       <c r="H291" t="s">
-        <v>1277</v>
+        <v>1269</v>
       </c>
       <c r="I291" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.3">
@@ -11914,7 +11926,7 @@
         <v>295</v>
       </c>
       <c r="E292" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F292" t="s">
         <v>714</v>
@@ -11923,10 +11935,10 @@
         <v>850</v>
       </c>
       <c r="H292" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="I292" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.3">
@@ -11940,7 +11952,7 @@
         <v>296</v>
       </c>
       <c r="E293" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F293" t="s">
         <v>715</v>
@@ -11949,10 +11961,10 @@
         <v>1048</v>
       </c>
       <c r="H293" t="s">
-        <v>1277</v>
+        <v>1269</v>
       </c>
       <c r="I293" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.3">
@@ -11966,7 +11978,7 @@
         <v>297</v>
       </c>
       <c r="E294" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F294" t="s">
         <v>716</v>
@@ -11975,10 +11987,10 @@
         <v>850</v>
       </c>
       <c r="H294" t="s">
-        <v>1247</v>
+        <v>1239</v>
       </c>
       <c r="I294" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.3">
@@ -11992,7 +12004,7 @@
         <v>298</v>
       </c>
       <c r="E295" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F295" t="s">
         <v>717</v>
@@ -12001,10 +12013,10 @@
         <v>856</v>
       </c>
       <c r="H295" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="I295" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.3">
@@ -12018,7 +12030,7 @@
         <v>299</v>
       </c>
       <c r="E296" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F296" t="s">
         <v>718</v>
@@ -12027,10 +12039,10 @@
         <v>1049</v>
       </c>
       <c r="H296" t="s">
-        <v>1277</v>
+        <v>1269</v>
       </c>
       <c r="I296" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.3">
@@ -12044,7 +12056,7 @@
         <v>300</v>
       </c>
       <c r="E297" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F297" t="s">
         <v>719</v>
@@ -12053,10 +12065,10 @@
         <v>856</v>
       </c>
       <c r="H297" t="s">
-        <v>1247</v>
+        <v>1239</v>
       </c>
       <c r="I297" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.3">
@@ -12070,7 +12082,7 @@
         <v>301</v>
       </c>
       <c r="E298" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F298" t="s">
         <v>720</v>
@@ -12079,10 +12091,10 @@
         <v>1050</v>
       </c>
       <c r="H298" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="I298" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.3">
@@ -12096,7 +12108,7 @@
         <v>302</v>
       </c>
       <c r="E299" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F299" t="s">
         <v>721</v>
@@ -12105,10 +12117,10 @@
         <v>1051</v>
       </c>
       <c r="H299" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="I299" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.3">
@@ -12122,7 +12134,7 @@
         <v>303</v>
       </c>
       <c r="E300" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F300" t="s">
         <v>722</v>
@@ -12131,10 +12143,10 @@
         <v>1052</v>
       </c>
       <c r="H300" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="I300" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.3">
@@ -12148,7 +12160,7 @@
         <v>304</v>
       </c>
       <c r="E301" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F301" t="s">
         <v>723</v>
@@ -12157,10 +12169,10 @@
         <v>860</v>
       </c>
       <c r="H301" t="s">
-        <v>1247</v>
+        <v>1239</v>
       </c>
       <c r="I301" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.3">
@@ -12174,7 +12186,7 @@
         <v>305</v>
       </c>
       <c r="E302" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F302" t="s">
         <v>724</v>
@@ -12183,10 +12195,10 @@
         <v>856</v>
       </c>
       <c r="H302" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="I302" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.3">
@@ -12200,7 +12212,7 @@
         <v>306</v>
       </c>
       <c r="E303" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F303" t="s">
         <v>725</v>
@@ -12209,10 +12221,10 @@
         <v>1053</v>
       </c>
       <c r="H303" t="s">
-        <v>1246</v>
+        <v>1238</v>
       </c>
       <c r="I303" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.3">
@@ -12226,7 +12238,7 @@
         <v>307</v>
       </c>
       <c r="E304" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F304" t="s">
         <v>726</v>
@@ -12235,10 +12247,10 @@
         <v>1054</v>
       </c>
       <c r="H304" t="s">
-        <v>1246</v>
+        <v>1238</v>
       </c>
       <c r="I304" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.3">
@@ -12255,7 +12267,7 @@
         <v>308</v>
       </c>
       <c r="E305" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F305" t="s">
         <v>727</v>
@@ -12264,10 +12276,10 @@
         <v>874</v>
       </c>
       <c r="H305" t="s">
-        <v>1246</v>
+        <v>1238</v>
       </c>
       <c r="I305" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.3">
@@ -12281,7 +12293,7 @@
         <v>309</v>
       </c>
       <c r="E306" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F306" t="s">
         <v>728</v>
@@ -12290,10 +12302,10 @@
         <v>1055</v>
       </c>
       <c r="H306" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="I306" t="s">
-        <v>1260</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.3">
@@ -12307,7 +12319,7 @@
         <v>310</v>
       </c>
       <c r="E307" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F307" t="s">
         <v>729</v>
@@ -12316,10 +12328,10 @@
         <v>856</v>
       </c>
       <c r="H307" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="I307" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.3">
@@ -12333,7 +12345,7 @@
         <v>311</v>
       </c>
       <c r="E308" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F308" t="s">
         <v>730</v>
@@ -12342,10 +12354,10 @@
         <v>1056</v>
       </c>
       <c r="H308" t="s">
-        <v>1277</v>
+        <v>1269</v>
       </c>
       <c r="I308" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.3">
@@ -12359,7 +12371,7 @@
         <v>312</v>
       </c>
       <c r="E309" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F309" t="s">
         <v>731</v>
@@ -12368,10 +12380,10 @@
         <v>1057</v>
       </c>
       <c r="H309" t="s">
-        <v>1277</v>
+        <v>1269</v>
       </c>
       <c r="I309" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.3">
@@ -12385,7 +12397,7 @@
         <v>313</v>
       </c>
       <c r="E310" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F310" t="s">
         <v>732</v>
@@ -12394,10 +12406,10 @@
         <v>1058</v>
       </c>
       <c r="H310" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="I310" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.3">
@@ -12411,7 +12423,7 @@
         <v>314</v>
       </c>
       <c r="E311" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F311" t="s">
         <v>733</v>
@@ -12420,10 +12432,10 @@
         <v>902</v>
       </c>
       <c r="H311" t="s">
-        <v>1246</v>
+        <v>1238</v>
       </c>
       <c r="I311" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.3">
@@ -12437,7 +12449,7 @@
         <v>315</v>
       </c>
       <c r="E312" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F312" t="s">
         <v>734</v>
@@ -12446,10 +12458,10 @@
         <v>1059</v>
       </c>
       <c r="H312" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="I312" t="s">
-        <v>1260</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.3">
@@ -12466,7 +12478,7 @@
         <v>316</v>
       </c>
       <c r="E313" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F313" t="s">
         <v>735</v>
@@ -12475,10 +12487,10 @@
         <v>1023</v>
       </c>
       <c r="H313" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="I313" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.3">
@@ -12492,7 +12504,7 @@
         <v>317</v>
       </c>
       <c r="E314" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F314" t="s">
         <v>735</v>
@@ -12501,10 +12513,10 @@
         <v>1033</v>
       </c>
       <c r="H314" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="I314" t="s">
-        <v>1260</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.3">
@@ -12518,7 +12530,7 @@
         <v>318</v>
       </c>
       <c r="E315" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F315" t="s">
         <v>736</v>
@@ -12527,10 +12539,10 @@
         <v>1060</v>
       </c>
       <c r="H315" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="I315" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.3">
@@ -12544,7 +12556,7 @@
         <v>319</v>
       </c>
       <c r="E316" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F316" t="s">
         <v>737</v>
@@ -12553,10 +12565,10 @@
         <v>1061</v>
       </c>
       <c r="H316" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="I316" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.3">
@@ -12570,7 +12582,7 @@
         <v>320</v>
       </c>
       <c r="E317" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F317" t="s">
         <v>738</v>
@@ -12579,10 +12591,10 @@
         <v>856</v>
       </c>
       <c r="H317" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="I317" t="s">
-        <v>1260</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.3">
@@ -12596,7 +12608,7 @@
         <v>321</v>
       </c>
       <c r="E318" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F318" t="s">
         <v>739</v>
@@ -12605,10 +12617,10 @@
         <v>850</v>
       </c>
       <c r="H318" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="I318" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.3">
@@ -12625,7 +12637,7 @@
         <v>322</v>
       </c>
       <c r="E319" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="F319" t="s">
         <v>740</v>
@@ -12634,10 +12646,10 @@
         <v>856</v>
       </c>
       <c r="H319" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="I319" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.3">
@@ -12651,7 +12663,7 @@
         <v>323</v>
       </c>
       <c r="E320" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F320" t="s">
         <v>741</v>
@@ -12660,10 +12672,10 @@
         <v>1062</v>
       </c>
       <c r="H320" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="I320" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.3">
@@ -12677,7 +12689,7 @@
         <v>324</v>
       </c>
       <c r="E321" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F321" t="s">
         <v>742</v>
@@ -12686,10 +12698,10 @@
         <v>900</v>
       </c>
       <c r="H321" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="I321" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.3">
@@ -12703,7 +12715,7 @@
         <v>325</v>
       </c>
       <c r="E322" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F322" t="s">
         <v>743</v>
@@ -12712,10 +12724,10 @@
         <v>947</v>
       </c>
       <c r="H322" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="I322" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.3">
@@ -12729,7 +12741,7 @@
         <v>326</v>
       </c>
       <c r="E323" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F323" t="s">
         <v>744</v>
@@ -12738,10 +12750,10 @@
         <v>1014</v>
       </c>
       <c r="H323" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="I323" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.3">
@@ -12755,7 +12767,7 @@
         <v>327</v>
       </c>
       <c r="E324" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F324" t="s">
         <v>745</v>
@@ -12764,7 +12776,7 @@
         <v>1063</v>
       </c>
       <c r="I324" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.3">
@@ -12778,7 +12790,7 @@
         <v>328</v>
       </c>
       <c r="E325" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F325" t="s">
         <v>746</v>
@@ -12787,7 +12799,7 @@
         <v>1064</v>
       </c>
       <c r="I325" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.3">
@@ -12801,7 +12813,7 @@
         <v>329</v>
       </c>
       <c r="E326" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F326" t="s">
         <v>747</v>
@@ -12810,7 +12822,7 @@
         <v>1065</v>
       </c>
       <c r="I326" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.3">
@@ -12824,7 +12836,7 @@
         <v>330</v>
       </c>
       <c r="E327" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F327" t="s">
         <v>748</v>
@@ -12833,7 +12845,7 @@
         <v>1066</v>
       </c>
       <c r="I327" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.3">
@@ -12847,7 +12859,7 @@
         <v>331</v>
       </c>
       <c r="E328" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F328" t="s">
         <v>749</v>
@@ -12856,10 +12868,10 @@
         <v>1067</v>
       </c>
       <c r="H328" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="I328" t="s">
-        <v>1260</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.3">
@@ -12873,7 +12885,7 @@
         <v>332</v>
       </c>
       <c r="E329" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F329" t="s">
         <v>750</v>
@@ -12882,10 +12894,10 @@
         <v>1068</v>
       </c>
       <c r="H329" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="I329" t="s">
-        <v>1260</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.3">
@@ -12899,7 +12911,7 @@
         <v>333</v>
       </c>
       <c r="E330" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F330" t="s">
         <v>751</v>
@@ -12908,10 +12920,10 @@
         <v>1069</v>
       </c>
       <c r="H330" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="I330" t="s">
-        <v>1260</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.3">
@@ -12925,7 +12937,7 @@
         <v>334</v>
       </c>
       <c r="E331" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F331" t="s">
         <v>752</v>
@@ -12934,10 +12946,10 @@
         <v>1070</v>
       </c>
       <c r="H331" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="I331" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.3">
@@ -12951,7 +12963,7 @@
         <v>335</v>
       </c>
       <c r="E332" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F332" t="s">
         <v>753</v>
@@ -12960,10 +12972,10 @@
         <v>1008</v>
       </c>
       <c r="H332" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="I332" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.3">
@@ -12977,7 +12989,7 @@
         <v>336</v>
       </c>
       <c r="E333" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F333" t="s">
         <v>754</v>
@@ -12986,10 +12998,10 @@
         <v>1071</v>
       </c>
       <c r="H333" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="I333" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.3">
@@ -13003,7 +13015,7 @@
         <v>337</v>
       </c>
       <c r="E334" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F334" t="s">
         <v>755</v>
@@ -13012,10 +13024,10 @@
         <v>1072</v>
       </c>
       <c r="H334" t="s">
-        <v>1248</v>
+        <v>1240</v>
       </c>
       <c r="I334" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.3">
@@ -13029,7 +13041,7 @@
         <v>338</v>
       </c>
       <c r="E335" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F335" t="s">
         <v>756</v>
@@ -13038,10 +13050,10 @@
         <v>856</v>
       </c>
       <c r="H335" t="s">
-        <v>1248</v>
+        <v>1240</v>
       </c>
       <c r="I335" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.3">
@@ -13055,7 +13067,7 @@
         <v>339</v>
       </c>
       <c r="E336" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F336" t="s">
         <v>757</v>
@@ -13064,10 +13076,10 @@
         <v>850</v>
       </c>
       <c r="H336" t="s">
-        <v>1248</v>
+        <v>1240</v>
       </c>
       <c r="I336" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="337" spans="1:12" x14ac:dyDescent="0.3">
@@ -13084,7 +13096,7 @@
         <v>340</v>
       </c>
       <c r="E337" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F337" t="s">
         <v>758</v>
@@ -13093,10 +13105,10 @@
         <v>1073</v>
       </c>
       <c r="H337" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="I337" t="s">
-        <v>1260</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="338" spans="1:12" x14ac:dyDescent="0.3">
@@ -13113,7 +13125,7 @@
         <v>341</v>
       </c>
       <c r="E338" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F338" t="s">
         <v>759</v>
@@ -13122,10 +13134,10 @@
         <v>1074</v>
       </c>
       <c r="H338" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="I338" t="s">
-        <v>1260</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="339" spans="1:12" x14ac:dyDescent="0.3">
@@ -13142,7 +13154,7 @@
         <v>342</v>
       </c>
       <c r="E339" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F339" t="s">
         <v>760</v>
@@ -13151,10 +13163,10 @@
         <v>1075</v>
       </c>
       <c r="H339" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="I339" t="s">
-        <v>1260</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="340" spans="1:12" x14ac:dyDescent="0.3">
@@ -13168,7 +13180,7 @@
         <v>343</v>
       </c>
       <c r="E340" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F340" t="s">
         <v>761</v>
@@ -13177,10 +13189,10 @@
         <v>1076</v>
       </c>
       <c r="H340" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
       <c r="I340" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="341" spans="1:12" x14ac:dyDescent="0.3">
@@ -13194,7 +13206,7 @@
         <v>344</v>
       </c>
       <c r="E341" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F341" t="s">
         <v>762</v>
@@ -13203,10 +13215,10 @@
         <v>1077</v>
       </c>
       <c r="H341" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
       <c r="I341" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="342" spans="1:12" x14ac:dyDescent="0.3">
@@ -13220,7 +13232,7 @@
         <v>345</v>
       </c>
       <c r="E342" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F342" t="s">
         <v>763</v>
@@ -13229,10 +13241,10 @@
         <v>1078</v>
       </c>
       <c r="H342" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="I342" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="343" spans="1:12" x14ac:dyDescent="0.3">
@@ -13246,7 +13258,7 @@
         <v>346</v>
       </c>
       <c r="E343" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F343" t="s">
         <v>764</v>
@@ -13255,10 +13267,10 @@
         <v>1079</v>
       </c>
       <c r="H343" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="I343" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="344" spans="1:12" x14ac:dyDescent="0.3">
@@ -13272,7 +13284,7 @@
         <v>347</v>
       </c>
       <c r="E344" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F344" t="s">
         <v>765</v>
@@ -13281,16 +13293,16 @@
         <v>908</v>
       </c>
       <c r="H344" t="s">
+        <v>1206</v>
+      </c>
+      <c r="I344" t="s">
+        <v>1249</v>
+      </c>
+      <c r="K344" t="s">
         <v>1207</v>
       </c>
-      <c r="I344" t="s">
-        <v>1257</v>
-      </c>
-      <c r="K344" t="s">
-        <v>1208</v>
-      </c>
       <c r="L344" t="s">
-        <v>1260</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="345" spans="1:12" x14ac:dyDescent="0.3">
@@ -13304,7 +13316,7 @@
         <v>348</v>
       </c>
       <c r="E345" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F345" t="s">
         <v>766</v>
@@ -13313,10 +13325,10 @@
         <v>937</v>
       </c>
       <c r="H345" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="I345" t="s">
-        <v>1260</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="346" spans="1:12" x14ac:dyDescent="0.3">
@@ -13330,7 +13342,7 @@
         <v>349</v>
       </c>
       <c r="E346" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F346" t="s">
         <v>767</v>
@@ -13339,10 +13351,10 @@
         <v>850</v>
       </c>
       <c r="H346" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="I346" t="s">
-        <v>1260</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="347" spans="1:12" x14ac:dyDescent="0.3">
@@ -13356,7 +13368,7 @@
         <v>350</v>
       </c>
       <c r="E347" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F347" t="s">
         <v>768</v>
@@ -13365,10 +13377,10 @@
         <v>1080</v>
       </c>
       <c r="H347" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="I347" t="s">
-        <v>1260</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="348" spans="1:12" x14ac:dyDescent="0.3">
@@ -13382,7 +13394,7 @@
         <v>351</v>
       </c>
       <c r="E348" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F348" t="s">
         <v>765</v>
@@ -13391,16 +13403,16 @@
         <v>908</v>
       </c>
       <c r="H348" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="I348" t="s">
-        <v>1260</v>
+        <v>1252</v>
       </c>
       <c r="K348" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="L348" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="349" spans="1:12" x14ac:dyDescent="0.3">
@@ -13414,7 +13426,7 @@
         <v>352</v>
       </c>
       <c r="E349" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F349" t="s">
         <v>769</v>
@@ -13423,10 +13435,10 @@
         <v>856</v>
       </c>
       <c r="H349" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="I349" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="350" spans="1:12" x14ac:dyDescent="0.3">
@@ -13440,7 +13452,7 @@
         <v>353</v>
       </c>
       <c r="E350" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F350" t="s">
         <v>770</v>
@@ -13449,10 +13461,10 @@
         <v>856</v>
       </c>
       <c r="H350" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="I350" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="351" spans="1:12" x14ac:dyDescent="0.3">
@@ -13466,7 +13478,7 @@
         <v>354</v>
       </c>
       <c r="E351" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F351" t="s">
         <v>771</v>
@@ -13475,10 +13487,10 @@
         <v>856</v>
       </c>
       <c r="H351" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="I351" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="352" spans="1:12" x14ac:dyDescent="0.3">
@@ -13492,7 +13504,7 @@
         <v>355</v>
       </c>
       <c r="E352" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F352" t="s">
         <v>772</v>
@@ -13501,10 +13513,10 @@
         <v>852</v>
       </c>
       <c r="H352" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="I352" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.3">
@@ -13518,7 +13530,7 @@
         <v>356</v>
       </c>
       <c r="E353" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F353" t="s">
         <v>773</v>
@@ -13527,10 +13539,10 @@
         <v>913</v>
       </c>
       <c r="H353" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="I353" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.3">
@@ -13544,7 +13556,7 @@
         <v>357</v>
       </c>
       <c r="E354" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F354" t="s">
         <v>774</v>
@@ -13553,10 +13565,10 @@
         <v>908</v>
       </c>
       <c r="H354" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="I354" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.3">
@@ -13570,7 +13582,7 @@
         <v>358</v>
       </c>
       <c r="E355" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F355" t="s">
         <v>775</v>
@@ -13579,10 +13591,10 @@
         <v>908</v>
       </c>
       <c r="H355" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="I355" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.3">
@@ -13596,7 +13608,7 @@
         <v>359</v>
       </c>
       <c r="E356" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F356" t="s">
         <v>776</v>
@@ -13605,10 +13617,10 @@
         <v>1081</v>
       </c>
       <c r="H356" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="I356" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.3">
@@ -13622,7 +13634,7 @@
         <v>360</v>
       </c>
       <c r="E357" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F357" t="s">
         <v>777</v>
@@ -13631,10 +13643,10 @@
         <v>1082</v>
       </c>
       <c r="H357" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="I357" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.3">
@@ -13648,7 +13660,7 @@
         <v>361</v>
       </c>
       <c r="E358" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F358" t="s">
         <v>778</v>
@@ -13657,10 +13669,10 @@
         <v>1083</v>
       </c>
       <c r="H358" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="I358" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.3">
@@ -13674,7 +13686,7 @@
         <v>362</v>
       </c>
       <c r="E359" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F359" t="s">
         <v>779</v>
@@ -13683,10 +13695,10 @@
         <v>1084</v>
       </c>
       <c r="H359" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="I359" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.3">
@@ -13700,7 +13712,7 @@
         <v>363</v>
       </c>
       <c r="E360" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F360" t="s">
         <v>780</v>
@@ -13709,10 +13721,10 @@
         <v>1085</v>
       </c>
       <c r="H360" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="I360" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.3">
@@ -13726,7 +13738,7 @@
         <v>364</v>
       </c>
       <c r="E361" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F361" t="s">
         <v>781</v>
@@ -13735,10 +13747,10 @@
         <v>1086</v>
       </c>
       <c r="H361" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="I361" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.3">
@@ -13752,7 +13764,7 @@
         <v>365</v>
       </c>
       <c r="E362" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F362" t="s">
         <v>782</v>
@@ -13761,10 +13773,10 @@
         <v>1087</v>
       </c>
       <c r="H362" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="I362" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.3">
@@ -13778,7 +13790,7 @@
         <v>366</v>
       </c>
       <c r="E363" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F363" t="s">
         <v>783</v>
@@ -13787,10 +13799,10 @@
         <v>908</v>
       </c>
       <c r="H363" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="I363" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.3">
@@ -13804,7 +13816,7 @@
         <v>367</v>
       </c>
       <c r="E364" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F364" t="s">
         <v>784</v>
@@ -13813,10 +13825,10 @@
         <v>1088</v>
       </c>
       <c r="H364" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="I364" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.3">
@@ -13830,7 +13842,7 @@
         <v>368</v>
       </c>
       <c r="E365" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F365" t="s">
         <v>785</v>
@@ -13839,10 +13851,10 @@
         <v>1089</v>
       </c>
       <c r="H365" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="I365" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.3">
@@ -13856,7 +13868,7 @@
         <v>369</v>
       </c>
       <c r="E366" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F366" t="s">
         <v>786</v>
@@ -13865,10 +13877,10 @@
         <v>937</v>
       </c>
       <c r="H366" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="I366" t="s">
-        <v>1260</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.3">
@@ -13882,7 +13894,7 @@
         <v>370</v>
       </c>
       <c r="E367" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F367" t="s">
         <v>787</v>
@@ -13891,10 +13903,10 @@
         <v>850</v>
       </c>
       <c r="H367" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="I367" t="s">
-        <v>1260</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="368" spans="1:9" x14ac:dyDescent="0.3">
@@ -13908,7 +13920,7 @@
         <v>371</v>
       </c>
       <c r="E368" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F368" t="s">
         <v>788</v>
@@ -13917,10 +13929,10 @@
         <v>850</v>
       </c>
       <c r="H368" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="I368" t="s">
-        <v>1260</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="369" spans="1:9" x14ac:dyDescent="0.3">
@@ -13934,7 +13946,7 @@
         <v>372</v>
       </c>
       <c r="E369" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F369" t="s">
         <v>789</v>
@@ -13943,10 +13955,10 @@
         <v>856</v>
       </c>
       <c r="H369" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="I369" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="370" spans="1:9" x14ac:dyDescent="0.3">
@@ -13960,7 +13972,7 @@
         <v>373</v>
       </c>
       <c r="E370" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F370" t="s">
         <v>790</v>
@@ -13969,10 +13981,10 @@
         <v>856</v>
       </c>
       <c r="H370" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="I370" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="371" spans="1:9" x14ac:dyDescent="0.3">
@@ -13986,7 +13998,7 @@
         <v>374</v>
       </c>
       <c r="E371" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F371" t="s">
         <v>791</v>
@@ -13995,10 +14007,10 @@
         <v>1090</v>
       </c>
       <c r="H371" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="I371" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="372" spans="1:9" x14ac:dyDescent="0.3">
@@ -14012,7 +14024,7 @@
         <v>375</v>
       </c>
       <c r="E372" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F372" t="s">
         <v>792</v>
@@ -14021,10 +14033,10 @@
         <v>1091</v>
       </c>
       <c r="H372" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="I372" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="373" spans="1:9" x14ac:dyDescent="0.3">
@@ -14041,7 +14053,7 @@
         <v>376</v>
       </c>
       <c r="E373" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F373" t="s">
         <v>793</v>
@@ -14050,10 +14062,10 @@
         <v>908</v>
       </c>
       <c r="H373" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="I373" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="374" spans="1:9" x14ac:dyDescent="0.3">
@@ -14067,7 +14079,7 @@
         <v>377</v>
       </c>
       <c r="E374" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F374" t="s">
         <v>794</v>
@@ -14076,10 +14088,10 @@
         <v>1092</v>
       </c>
       <c r="H374" t="s">
-        <v>1275</v>
+        <v>1267</v>
       </c>
       <c r="I374" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="375" spans="1:9" x14ac:dyDescent="0.3">
@@ -14093,7 +14105,7 @@
         <v>378</v>
       </c>
       <c r="E375" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F375" t="s">
         <v>795</v>
@@ -14102,10 +14114,10 @@
         <v>1093</v>
       </c>
       <c r="H375" t="s">
-        <v>1275</v>
+        <v>1267</v>
       </c>
       <c r="I375" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="376" spans="1:9" x14ac:dyDescent="0.3">
@@ -14119,7 +14131,7 @@
         <v>379</v>
       </c>
       <c r="E376" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F376" t="s">
         <v>796</v>
@@ -14128,10 +14140,10 @@
         <v>1094</v>
       </c>
       <c r="H376" t="s">
-        <v>1275</v>
+        <v>1267</v>
       </c>
       <c r="I376" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="377" spans="1:9" x14ac:dyDescent="0.3">
@@ -14145,7 +14157,7 @@
         <v>380</v>
       </c>
       <c r="E377" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F377" t="s">
         <v>797</v>
@@ -14154,10 +14166,10 @@
         <v>856</v>
       </c>
       <c r="H377" t="s">
-        <v>1275</v>
+        <v>1267</v>
       </c>
       <c r="I377" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="378" spans="1:9" x14ac:dyDescent="0.3">
@@ -14171,7 +14183,7 @@
         <v>381</v>
       </c>
       <c r="E378" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F378" t="s">
         <v>798</v>
@@ -14180,10 +14192,10 @@
         <v>856</v>
       </c>
       <c r="H378" t="s">
-        <v>1274</v>
+        <v>1266</v>
       </c>
       <c r="I378" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="379" spans="1:9" x14ac:dyDescent="0.3">
@@ -14197,7 +14209,7 @@
         <v>382</v>
       </c>
       <c r="E379" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F379" t="s">
         <v>799</v>
@@ -14206,10 +14218,10 @@
         <v>1095</v>
       </c>
       <c r="H379" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="I379" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="380" spans="1:9" x14ac:dyDescent="0.3">
@@ -14223,7 +14235,7 @@
         <v>383</v>
       </c>
       <c r="E380" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F380" t="s">
         <v>800</v>
@@ -14232,10 +14244,10 @@
         <v>1096</v>
       </c>
       <c r="H380" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="I380" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="381" spans="1:9" x14ac:dyDescent="0.3">
@@ -14249,7 +14261,7 @@
         <v>384</v>
       </c>
       <c r="E381" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F381" t="s">
         <v>801</v>
@@ -14258,10 +14270,10 @@
         <v>850</v>
       </c>
       <c r="H381" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="I381" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="382" spans="1:9" x14ac:dyDescent="0.3">
@@ -14275,7 +14287,7 @@
         <v>385</v>
       </c>
       <c r="E382" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F382" t="s">
         <v>802</v>
@@ -14284,10 +14296,10 @@
         <v>860</v>
       </c>
       <c r="H382" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="I382" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="383" spans="1:9" x14ac:dyDescent="0.3">
@@ -14301,7 +14313,7 @@
         <v>386</v>
       </c>
       <c r="E383" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F383" t="s">
         <v>803</v>
@@ -14310,10 +14322,10 @@
         <v>850</v>
       </c>
       <c r="H383" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="I383" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="384" spans="1:9" x14ac:dyDescent="0.3">
@@ -14327,7 +14339,7 @@
         <v>387</v>
       </c>
       <c r="E384" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F384" t="s">
         <v>804</v>
@@ -14336,10 +14348,10 @@
         <v>850</v>
       </c>
       <c r="H384" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="I384" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="385" spans="1:10" x14ac:dyDescent="0.3">
@@ -14353,7 +14365,7 @@
         <v>388</v>
       </c>
       <c r="E385" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F385" t="s">
         <v>805</v>
@@ -14362,10 +14374,10 @@
         <v>856</v>
       </c>
       <c r="H385" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="I385" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="386" spans="1:10" x14ac:dyDescent="0.3">
@@ -14379,7 +14391,7 @@
         <v>389</v>
       </c>
       <c r="E386" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F386" t="s">
         <v>806</v>
@@ -14391,7 +14403,7 @@
         <v>1134</v>
       </c>
       <c r="I386" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="387" spans="1:10" x14ac:dyDescent="0.3">
@@ -14405,7 +14417,7 @@
         <v>390</v>
       </c>
       <c r="E387" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F387" t="s">
         <v>807</v>
@@ -14417,7 +14429,7 @@
         <v>1134</v>
       </c>
       <c r="I387" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="388" spans="1:10" x14ac:dyDescent="0.3">
@@ -14431,7 +14443,7 @@
         <v>391</v>
       </c>
       <c r="E388" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F388" t="s">
         <v>808</v>
@@ -14443,7 +14455,7 @@
         <v>1134</v>
       </c>
       <c r="I388" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="389" spans="1:10" x14ac:dyDescent="0.3">
@@ -14457,7 +14469,7 @@
         <v>392</v>
       </c>
       <c r="E389" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F389" t="s">
         <v>809</v>
@@ -14466,13 +14478,13 @@
         <v>1097</v>
       </c>
       <c r="H389" t="s">
-        <v>1278</v>
+        <v>1270</v>
       </c>
       <c r="I389" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
       <c r="J389" t="s">
-        <v>1259</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="390" spans="1:10" x14ac:dyDescent="0.3">
@@ -14486,7 +14498,7 @@
         <v>393</v>
       </c>
       <c r="E390" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F390" t="s">
         <v>810</v>
@@ -14495,13 +14507,13 @@
         <v>1098</v>
       </c>
       <c r="H390" t="s">
-        <v>1278</v>
+        <v>1270</v>
       </c>
       <c r="I390" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
       <c r="J390" t="s">
-        <v>1259</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="391" spans="1:10" x14ac:dyDescent="0.3">
@@ -14515,7 +14527,7 @@
         <v>394</v>
       </c>
       <c r="E391" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F391" t="s">
         <v>811</v>
@@ -14524,13 +14536,13 @@
         <v>1099</v>
       </c>
       <c r="H391" t="s">
-        <v>1278</v>
+        <v>1270</v>
       </c>
       <c r="I391" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
       <c r="J391" t="s">
-        <v>1259</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="392" spans="1:10" x14ac:dyDescent="0.3">
@@ -14544,7 +14556,7 @@
         <v>395</v>
       </c>
       <c r="E392" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F392" t="s">
         <v>812</v>
@@ -14553,13 +14565,13 @@
         <v>856</v>
       </c>
       <c r="H392" t="s">
-        <v>1278</v>
+        <v>1270</v>
       </c>
       <c r="I392" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
       <c r="J392" t="s">
-        <v>1259</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="393" spans="1:10" x14ac:dyDescent="0.3">
@@ -14573,7 +14585,7 @@
         <v>396</v>
       </c>
       <c r="E393" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F393" t="s">
         <v>813</v>
@@ -14582,13 +14594,13 @@
         <v>1100</v>
       </c>
       <c r="H393" t="s">
-        <v>1278</v>
+        <v>1270</v>
       </c>
       <c r="I393" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
       <c r="J393" t="s">
-        <v>1259</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="394" spans="1:10" x14ac:dyDescent="0.3">
@@ -14602,7 +14614,7 @@
         <v>397</v>
       </c>
       <c r="E394" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F394" t="s">
         <v>814</v>
@@ -14611,13 +14623,13 @@
         <v>1101</v>
       </c>
       <c r="H394" t="s">
-        <v>1278</v>
+        <v>1270</v>
       </c>
       <c r="I394" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
       <c r="J394" t="s">
-        <v>1259</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="395" spans="1:10" x14ac:dyDescent="0.3">
@@ -14631,7 +14643,7 @@
         <v>398</v>
       </c>
       <c r="E395" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F395" t="s">
         <v>815</v>
@@ -14640,13 +14652,13 @@
         <v>1102</v>
       </c>
       <c r="H395" t="s">
-        <v>1278</v>
+        <v>1270</v>
       </c>
       <c r="I395" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
       <c r="J395" t="s">
-        <v>1259</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="396" spans="1:10" x14ac:dyDescent="0.3">
@@ -14660,7 +14672,7 @@
         <v>399</v>
       </c>
       <c r="E396" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F396" t="s">
         <v>816</v>
@@ -14669,10 +14681,10 @@
         <v>1103</v>
       </c>
       <c r="H396" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="I396" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="397" spans="1:10" x14ac:dyDescent="0.3">
@@ -14686,7 +14698,7 @@
         <v>400</v>
       </c>
       <c r="E397" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F397" t="s">
         <v>817</v>
@@ -14695,10 +14707,10 @@
         <v>1104</v>
       </c>
       <c r="H397" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="I397" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="398" spans="1:10" x14ac:dyDescent="0.3">
@@ -14712,7 +14724,7 @@
         <v>401</v>
       </c>
       <c r="E398" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F398" t="s">
         <v>818</v>
@@ -14721,10 +14733,10 @@
         <v>1105</v>
       </c>
       <c r="H398" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="I398" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="399" spans="1:10" x14ac:dyDescent="0.3">
@@ -14738,7 +14750,7 @@
         <v>402</v>
       </c>
       <c r="E399" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F399" t="s">
         <v>819</v>
@@ -14747,10 +14759,10 @@
         <v>856</v>
       </c>
       <c r="H399" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="I399" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="400" spans="1:10" x14ac:dyDescent="0.3">
@@ -14764,7 +14776,7 @@
         <v>403</v>
       </c>
       <c r="E400" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F400" t="s">
         <v>820</v>
@@ -14773,10 +14785,10 @@
         <v>1106</v>
       </c>
       <c r="H400" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="I400" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="401" spans="1:9" x14ac:dyDescent="0.3">
@@ -14790,7 +14802,7 @@
         <v>404</v>
       </c>
       <c r="E401" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F401" t="s">
         <v>821</v>
@@ -14799,10 +14811,10 @@
         <v>1107</v>
       </c>
       <c r="H401" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="I401" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="402" spans="1:9" x14ac:dyDescent="0.3">
@@ -14816,7 +14828,7 @@
         <v>405</v>
       </c>
       <c r="E402" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F402" t="s">
         <v>822</v>
@@ -14825,10 +14837,10 @@
         <v>856</v>
       </c>
       <c r="H402" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="I402" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="403" spans="1:9" x14ac:dyDescent="0.3">
@@ -14842,7 +14854,7 @@
         <v>406</v>
       </c>
       <c r="E403" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F403" t="s">
         <v>823</v>
@@ -14851,10 +14863,10 @@
         <v>856</v>
       </c>
       <c r="H403" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="I403" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="404" spans="1:9" x14ac:dyDescent="0.3">
@@ -14868,7 +14880,7 @@
         <v>407</v>
       </c>
       <c r="E404" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F404" t="s">
         <v>824</v>
@@ -14877,10 +14889,10 @@
         <v>1108</v>
       </c>
       <c r="H404" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="I404" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="405" spans="1:9" x14ac:dyDescent="0.3">
@@ -14894,7 +14906,7 @@
         <v>408</v>
       </c>
       <c r="E405" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F405" t="s">
         <v>825</v>
@@ -14903,10 +14915,10 @@
         <v>856</v>
       </c>
       <c r="H405" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="I405" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="406" spans="1:9" x14ac:dyDescent="0.3">
@@ -14920,7 +14932,7 @@
         <v>409</v>
       </c>
       <c r="E406" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F406" t="s">
         <v>826</v>
@@ -14929,10 +14941,10 @@
         <v>856</v>
       </c>
       <c r="H406" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="I406" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="407" spans="1:9" x14ac:dyDescent="0.3">
@@ -14946,7 +14958,7 @@
         <v>410</v>
       </c>
       <c r="E407" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F407" t="s">
         <v>827</v>
@@ -14955,10 +14967,10 @@
         <v>1109</v>
       </c>
       <c r="H407" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="I407" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="408" spans="1:9" x14ac:dyDescent="0.3">
@@ -14972,7 +14984,7 @@
         <v>411</v>
       </c>
       <c r="E408" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F408" t="s">
         <v>828</v>
@@ -14981,10 +14993,10 @@
         <v>1110</v>
       </c>
       <c r="H408" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="I408" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="409" spans="1:9" x14ac:dyDescent="0.3">
@@ -14998,7 +15010,7 @@
         <v>412</v>
       </c>
       <c r="E409" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F409" t="s">
         <v>829</v>
@@ -15007,10 +15019,10 @@
         <v>850</v>
       </c>
       <c r="H409" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="I409" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="410" spans="1:9" x14ac:dyDescent="0.3">
@@ -15024,7 +15036,7 @@
         <v>413</v>
       </c>
       <c r="E410" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F410" t="s">
         <v>830</v>
@@ -15033,10 +15045,10 @@
         <v>937</v>
       </c>
       <c r="H410" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="I410" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="411" spans="1:9" x14ac:dyDescent="0.3">
@@ -15050,7 +15062,7 @@
         <v>414</v>
       </c>
       <c r="E411" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F411" t="s">
         <v>831</v>
@@ -15059,10 +15071,10 @@
         <v>1111</v>
       </c>
       <c r="H411" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="I411" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="412" spans="1:9" x14ac:dyDescent="0.3">
@@ -15076,7 +15088,7 @@
         <v>415</v>
       </c>
       <c r="E412" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F412" t="s">
         <v>832</v>
@@ -15085,10 +15097,10 @@
         <v>1112</v>
       </c>
       <c r="H412" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="I412" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="413" spans="1:9" x14ac:dyDescent="0.3">
@@ -15102,7 +15114,7 @@
         <v>416</v>
       </c>
       <c r="E413" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F413" t="s">
         <v>833</v>
@@ -15111,10 +15123,10 @@
         <v>939</v>
       </c>
       <c r="H413" t="s">
-        <v>1223</v>
+        <v>1284</v>
       </c>
       <c r="I413" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="414" spans="1:9" x14ac:dyDescent="0.3">
@@ -15128,7 +15140,7 @@
         <v>417</v>
       </c>
       <c r="E414" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F414" t="s">
         <v>834</v>
@@ -15137,10 +15149,10 @@
         <v>850</v>
       </c>
       <c r="H414" t="s">
-        <v>1223</v>
+        <v>1284</v>
       </c>
       <c r="I414" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="415" spans="1:9" x14ac:dyDescent="0.3">
@@ -15154,7 +15166,7 @@
         <v>418</v>
       </c>
       <c r="E415" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F415" t="s">
         <v>835</v>
@@ -15163,10 +15175,10 @@
         <v>1113</v>
       </c>
       <c r="H415" t="s">
-        <v>1223</v>
+        <v>1284</v>
       </c>
       <c r="I415" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="416" spans="1:9" x14ac:dyDescent="0.3">
@@ -15180,7 +15192,7 @@
         <v>419</v>
       </c>
       <c r="E416" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F416" t="s">
         <v>836</v>
@@ -15189,10 +15201,10 @@
         <v>860</v>
       </c>
       <c r="H416" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="I416" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="417" spans="1:9" x14ac:dyDescent="0.3">
@@ -15206,7 +15218,7 @@
         <v>420</v>
       </c>
       <c r="E417" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F417" t="s">
         <v>837</v>
@@ -15215,10 +15227,10 @@
         <v>856</v>
       </c>
       <c r="H417" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="I417" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="418" spans="1:9" x14ac:dyDescent="0.3">
@@ -15232,7 +15244,7 @@
         <v>421</v>
       </c>
       <c r="E418" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F418" t="s">
         <v>838</v>
@@ -15241,10 +15253,10 @@
         <v>850</v>
       </c>
       <c r="H418" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="I418" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="419" spans="1:9" x14ac:dyDescent="0.3">
@@ -15258,7 +15270,7 @@
         <v>422</v>
       </c>
       <c r="E419" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F419" t="s">
         <v>839</v>
@@ -15267,10 +15279,10 @@
         <v>856</v>
       </c>
       <c r="H419" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="I419" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="420" spans="1:9" x14ac:dyDescent="0.3">
@@ -15284,7 +15296,7 @@
         <v>423</v>
       </c>
       <c r="E420" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F420" t="s">
         <v>840</v>
@@ -15293,10 +15305,10 @@
         <v>1091</v>
       </c>
       <c r="H420" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="I420" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="421" spans="1:9" x14ac:dyDescent="0.3">
@@ -15310,7 +15322,7 @@
         <v>424</v>
       </c>
       <c r="E421" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F421" t="s">
         <v>841</v>
@@ -15319,10 +15331,10 @@
         <v>1114</v>
       </c>
       <c r="H421" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="I421" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="422" spans="1:9" x14ac:dyDescent="0.3">
@@ -15336,7 +15348,7 @@
         <v>425</v>
       </c>
       <c r="E422" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F422" t="s">
         <v>842</v>
@@ -15345,10 +15357,10 @@
         <v>1115</v>
       </c>
       <c r="H422" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="I422" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="423" spans="1:9" x14ac:dyDescent="0.3">
@@ -15362,7 +15374,7 @@
         <v>426</v>
       </c>
       <c r="E423" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F423" t="s">
         <v>843</v>
@@ -15371,10 +15383,10 @@
         <v>1116</v>
       </c>
       <c r="H423" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="I423" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
     </row>
   </sheetData>
